--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,6 +1137,198 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>10</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>8.133333333333333</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.800000000000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11.93333333333333</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-3.081595839893664</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-3.081595839893664</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>10</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8.466666666666667</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8.466666666666667</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7.020782027702444</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7.020782027702444</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
         <v>8.466666666666667</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>8.466666666666667</v>
+        <v>18.46666666666667</v>
       </c>
     </row>
     <row r="37">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
         <v>7.020782027702444</v>
@@ -1326,7 +1326,103 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>7.020782027702444</v>
+        <v>17.02078202770245</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8.181656016959636</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>18.18165601695964</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.533333333333335</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>15.73333333333333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7.641766140418432</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7.641766140418432</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -1104,13 +1104,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>7.800000000000001</v>
+        <v>8.233333333333333</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>16</v>
+        <v>16.43333333333333</v>
       </c>
     </row>
     <row r="29">
@@ -1200,13 +1200,13 @@
         <v>8.133333333333333</v>
       </c>
       <c r="D32" t="n">
-        <v>3.800000000000001</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>11.93333333333333</v>
+        <v>13.93333333333333</v>
       </c>
     </row>
     <row r="33">
@@ -1296,13 +1296,13 @@
         <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>8.466666666666667</v>
+        <v>9.133333333333333</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>18.46666666666667</v>
+        <v>19.13333333333333</v>
       </c>
     </row>
     <row r="37">
@@ -1320,13 +1320,13 @@
         <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>7.020782027702444</v>
+        <v>7.852063135800161</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>17.02078202770245</v>
+        <v>17.85206313580016</v>
       </c>
     </row>
     <row r="38">
@@ -1392,13 +1392,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>6.533333333333335</v>
+        <v>8.233333333333333</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>15.73333333333333</v>
+        <v>17.43333333333333</v>
       </c>
     </row>
     <row r="41">

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,85 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>agilar radikal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Big P</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rühl Jr.</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Muchacho7</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MagicMike</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>helth</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Mindful Multi Threader</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Muchacho6</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>OutOfShampoo</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Muchacho2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>SportySpice</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Muchacho5</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>vladimir gluten</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Friss mi Stoub</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Smash di weg</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>RESTful Gainz</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Final Bosses</t>
         </is>
@@ -480,13 +545,52 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>6.806101769458963</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.424921033499318</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>9.245410667978389</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9.58436556907381</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.670296578762107</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8.544848885725978</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.625969567448383</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9.373138133015789</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7.169795252380562</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9.183962614116426</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>10</v>
+      </c>
+      <c r="R2" t="n">
+        <v>62.01765687959869</v>
+      </c>
+      <c r="S2" t="n">
+        <v>51.61115319186103</v>
       </c>
     </row>
     <row r="3">
@@ -501,7 +605,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.003604117920971</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -510,7 +614,46 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.049345238414004</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.619744801992782</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.536207130597261</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.718213058419244</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.322751322751323</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.086625086625086</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.09969756475993</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>28.95748506613923</v>
+      </c>
+      <c r="S3" t="n">
+        <v>27.47870325534137</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +668,55 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.366666666666667</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.733333333333333</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.733333333333333</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P4" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="D4" t="n">
+      <c r="Q4" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>17.6</v>
+      <c r="R4" t="n">
+        <v>38.73333333333333</v>
+      </c>
+      <c r="S4" t="n">
+        <v>57.90000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +731,55 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.058054439420085</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.194250194250193</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.433090024330902</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P5" t="n">
         <v>7.128353228083689</v>
       </c>
-      <c r="D5" t="n">
+      <c r="Q5" t="n">
         <v>7.436422581751303</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14.56477580983499</v>
+      <c r="R5" t="n">
+        <v>34</v>
+      </c>
+      <c r="S5" t="n">
+        <v>34.68539465800118</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +794,55 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>9.14280862913094</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>9.247756976820586</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>7.924045328825515</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>9.381288529973531</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.783479392159773</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.841030611950202</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8.547715422619142</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.224388332526562</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9.302210858500132</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R6" t="n">
+        <v>65.21505405217394</v>
+      </c>
+      <c r="S6" t="n">
+        <v>56.17967003033243</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +857,55 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>6.514715179228114</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>5.428549166277077</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.034285216656117</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.510448895402486</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R7" t="n">
+        <v>42.93899806167956</v>
+      </c>
+      <c r="S7" t="n">
+        <v>33.54900039588423</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +920,55 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.199999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9.233333333333333</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" t="n">
         <v>7.399999999999999</v>
       </c>
-      <c r="D8" t="n">
+      <c r="Q8" t="n">
         <v>8.6</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>16</v>
+      <c r="R8" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>53.43333333333334</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +983,55 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.282439782439782</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.263157894736842</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.158229934466435</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7.339604404407894</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>7.187038249321986</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7.187038249321986</v>
+      <c r="R9" t="n">
+        <v>41.49783433887433</v>
+      </c>
+      <c r="S9" t="n">
+        <v>37.54559767717662</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +1046,55 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>5.178400568405444</v>
       </c>
       <c r="D10" t="n">
+        <v>1.940190949261356</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5931143407106272</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.780318956696957</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.917284622530796</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.05517616543083451</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.220201445899004</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.300065904357135</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="n">
         <v>9.701224489724348</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>19.70122448972435</v>
+      <c r="R10" t="n">
+        <v>31.39627149788934</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.588481455402818</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +1109,55 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.034285216656117</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="n">
         <v>5.737065401071441</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>15.73706540107144</v>
+      <c r="R11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S11" t="n">
+        <v>12.03428521665612</v>
       </c>
     </row>
     <row r="12">
@@ -717,16 +1172,55 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.600000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.933333333333334</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9.033333333333333</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>9.033333333333333</v>
+      </c>
+      <c r="P12" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="D12" t="n">
+      <c r="Q12" t="n">
         <v>9.533333333333333</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10.93333333333333</v>
+      <c r="R12" t="n">
+        <v>47.86666666666667</v>
+      </c>
+      <c r="S12" t="n">
+        <v>42.53333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +1235,55 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8.22299225438239</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9.668269230769234</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>8.350831800658792</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8.350831800658792</v>
+      <c r="R13" t="n">
+        <v>25.22299225438239</v>
+      </c>
+      <c r="S13" t="n">
+        <v>29.66826923076923</v>
       </c>
     </row>
     <row r="14">
@@ -765,16 +1298,55 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>6.670473532576138</v>
       </c>
       <c r="D14" t="n">
+        <v>-7.49541839561728</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.473597478669605</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.626631093364338</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.010175266400427</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6.254486117589882</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8.833148478401338</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.474704453313128</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7.040016100702364</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.269717416685214</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.27076040435405</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7.350603000179885</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5.535301305935096</v>
+      </c>
+      <c r="P14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="n">
         <v>9.306179203730617</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>19.30617920373061</v>
+      <c r="R14" t="n">
+        <v>40.76057928045513</v>
+      </c>
+      <c r="S14" t="n">
+        <v>23.55361697209905</v>
       </c>
     </row>
     <row r="15">
@@ -789,7 +1361,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -798,7 +1370,46 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7.551020408163265</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.859106529209622</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.880190535362949</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>13.41012693737289</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10.88019053536295</v>
       </c>
     </row>
     <row r="16">
@@ -813,16 +1424,55 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.733333333333333</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9.833333333333334</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9.233333333333333</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" t="n">
+        <v>10</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.233333333333333</v>
+      </c>
+      <c r="O16" t="n">
+        <v>10</v>
+      </c>
+      <c r="P16" t="n">
         <v>8.433333333333334</v>
       </c>
-      <c r="D16" t="n">
+      <c r="Q16" t="n">
         <v>8.733333333333333</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>17.16666666666666</v>
+      <c r="R16" t="n">
+        <v>47.46666666666667</v>
+      </c>
+      <c r="S16" t="n">
+        <v>58.16666666666666</v>
       </c>
     </row>
     <row r="17">
@@ -837,16 +1487,55 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
+        <v>9.607348439999493</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7.582750582750583</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>8.225961538461538</v>
+      </c>
+      <c r="L17" t="n">
+        <v>10</v>
+      </c>
+      <c r="M17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.31645986893287</v>
+      </c>
+      <c r="O17" t="n">
+        <v>10</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>7.353294470941529</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7.353294470941529</v>
+      <c r="R17" t="n">
+        <v>44.31645986893287</v>
+      </c>
+      <c r="S17" t="n">
+        <v>42.41606056121162</v>
       </c>
     </row>
     <row r="18">
@@ -861,16 +1550,55 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>9.335159025982589</v>
       </c>
       <c r="D18" t="n">
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>7.737181942413852</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>4.608100173021744</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-3.274088481371928</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9.699913027912215</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8.38628219936235</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9.389169561655885</v>
+      </c>
+      <c r="K18" t="n">
+        <v>8.709352777346547</v>
+      </c>
+      <c r="L18" t="n">
+        <v>9.712306494181206</v>
+      </c>
+      <c r="M18" t="n">
+        <v>8.176856473347812</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.932263172842727</v>
+      </c>
+      <c r="O18" t="n">
+        <v>10</v>
+      </c>
+      <c r="P18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>10</v>
+      </c>
+      <c r="R18" t="n">
+        <v>58.3632806270465</v>
+      </c>
+      <c r="S18" t="n">
+        <v>41.0492157396485</v>
       </c>
     </row>
     <row r="19">
@@ -888,13 +1616,52 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>9.29574304839916</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8.034107553881565</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.594474298431309</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8.272948656946474</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7.894608356001953</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>10</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>10</v>
+      </c>
+      <c r="R19" t="n">
+        <v>32.76203131137974</v>
+      </c>
+      <c r="S19" t="n">
+        <v>22.32985060228073</v>
       </c>
     </row>
     <row r="20">
@@ -909,16 +1676,55 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>9.566666666666666</v>
       </c>
       <c r="D20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7333333333333343</v>
+      </c>
+      <c r="F20" t="n">
         <v>8.266666666666667</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>18.26666666666667</v>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.466666666666665</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8.633333333333333</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6.533333333333335</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.266666666666666</v>
+      </c>
+      <c r="O20" t="n">
+        <v>10</v>
+      </c>
+      <c r="P20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>8.266666666666667</v>
+      </c>
+      <c r="R20" t="n">
+        <v>44.16666666666667</v>
+      </c>
+      <c r="S20" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -933,16 +1739,55 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>7.917244190786791</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>9.456197805796624</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8.018813213223677</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>29.93605740401047</v>
+      </c>
+      <c r="S21" t="n">
+        <v>9.456197805796624</v>
       </c>
     </row>
     <row r="22">
@@ -963,10 +1808,49 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>8.750176136961903</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>7.778097485393133</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9.279380396477517</v>
+      </c>
+      <c r="J22" t="n">
+        <v>9.877227842327629</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9.141962366733972</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8.794907846991805</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9.573281722674668</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>9.815576062259611</v>
+      </c>
+      <c r="P22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>10</v>
+      </c>
+      <c r="R22" t="n">
+        <v>65.5451896334497</v>
+      </c>
+      <c r="S22" t="n">
+        <v>57.46542022637054</v>
       </c>
     </row>
     <row r="23">
@@ -981,16 +1865,55 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>8.665387925628306</v>
       </c>
       <c r="D23" t="n">
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5.056281880438237</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9.91734672525633</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8.519717201324433</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6.348827557584562</v>
+      </c>
+      <c r="P23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>10</v>
+      </c>
+      <c r="R23" t="n">
+        <v>33.5339326845373</v>
+      </c>
+      <c r="S23" t="n">
+        <v>39.97362860569457</v>
       </c>
     </row>
     <row r="24">
@@ -1005,16 +1928,55 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.933333333333334</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.766666666666667</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>10</v>
+      </c>
+      <c r="L24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8.233333333333333</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="n">
+        <v>10</v>
+      </c>
+      <c r="P24" t="n">
         <v>1.800000000000001</v>
       </c>
-      <c r="D24" t="n">
+      <c r="Q24" t="n">
         <v>9.633333333333333</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>11.43333333333333</v>
+      <c r="R24" t="n">
+        <v>57</v>
+      </c>
+      <c r="S24" t="n">
+        <v>51.93333333333334</v>
       </c>
     </row>
     <row r="25">
@@ -1029,16 +1991,55 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9.664375982761632</v>
       </c>
       <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9.331002331002328</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>10</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.548245614035088</v>
+      </c>
+      <c r="M25" t="n">
+        <v>7.617927625226895</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>8.280047370460514</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>8.475523966873448</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>8.475523966873448</v>
+      <c r="R25" t="n">
+        <v>49.49266896725724</v>
+      </c>
+      <c r="S25" t="n">
+        <v>36.94892995622922</v>
       </c>
     </row>
     <row r="26">
@@ -1053,16 +2054,55 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>9.837036250543322</v>
       </c>
       <c r="D26" t="n">
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>9.390619303364</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9.418963200479389</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9.570119162507314</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.222965507587022</v>
+      </c>
+      <c r="K26" t="n">
+        <v>10</v>
+      </c>
+      <c r="L26" t="n">
+        <v>10</v>
+      </c>
+      <c r="M26" t="n">
+        <v>10</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>10</v>
+      </c>
+      <c r="P26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>10</v>
+      </c>
+      <c r="R26" t="n">
+        <v>67.02074022400166</v>
+      </c>
+      <c r="S26" t="n">
+        <v>59.41896320047939</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +2117,55 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>5.057930714865021</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>9.533345429454553</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>9.77692460219534</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>5.383796298775598</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9.168573026282345</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6.144460321337485</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9.868270332187858</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6.606049492021146</v>
+      </c>
+      <c r="L27" t="n">
+        <v>7.316166266282552</v>
+      </c>
+      <c r="M27" t="n">
+        <v>10</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" t="n">
+        <v>10</v>
+      </c>
+      <c r="P27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>10</v>
+      </c>
+      <c r="R27" t="n">
+        <v>57.62616361211103</v>
+      </c>
+      <c r="S27" t="n">
+        <v>51.22935287129087</v>
       </c>
     </row>
     <row r="28">
@@ -1101,16 +2180,55 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.466666666666665</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>8.466666666666667</v>
+      </c>
+      <c r="L28" t="n">
+        <v>10</v>
+      </c>
+      <c r="M28" t="n">
+        <v>8.066666666666666</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10</v>
+      </c>
+      <c r="O28" t="n">
+        <v>9.233333333333333</v>
+      </c>
+      <c r="P28" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D28" t="n">
-        <v>8.233333333333333</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>16.43333333333333</v>
+      <c r="Q28" t="n">
+        <v>7.800000000000001</v>
+      </c>
+      <c r="R28" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>56.53333333333333</v>
       </c>
     </row>
     <row r="29">
@@ -1125,16 +2243,55 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.631313131313133</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>8.827485380116961</v>
+      </c>
+      <c r="M29" t="n">
+        <v>7.424825242343491</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>49.82748538011696</v>
+      </c>
+      <c r="S29" t="n">
+        <v>35.05613837365662</v>
       </c>
     </row>
     <row r="30">
@@ -1149,16 +2306,55 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>9.170615607102505</v>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>7.705796118115087</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9.133353397603122</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10</v>
+      </c>
+      <c r="J30" t="n">
+        <v>8.104022703830902</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6.133291671956854</v>
+      </c>
+      <c r="L30" t="n">
+        <v>10</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8.945656952703034</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>10</v>
+      </c>
+      <c r="P30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>10</v>
+      </c>
+      <c r="R30" t="n">
+        <v>67.2746383109334</v>
+      </c>
+      <c r="S30" t="n">
+        <v>51.9180981403781</v>
       </c>
     </row>
     <row r="31">
@@ -1173,16 +2369,55 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>5.40551500405515</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>9.298528618470328</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>7.012189166437789</v>
+      </c>
+      <c r="G31" t="n">
+        <v>8.514056224899598</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.51206904353242</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>8.782570233571834</v>
+      </c>
+      <c r="M31" t="n">
+        <v>9.811250925240563</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" t="n">
+        <v>8.061784063862888</v>
+      </c>
+      <c r="P31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>10</v>
+      </c>
+      <c r="R31" t="n">
+        <v>56.66205846792766</v>
+      </c>
+      <c r="S31" t="n">
+        <v>33.13590481214291</v>
       </c>
     </row>
     <row r="32">
@@ -1197,16 +2432,55 @@
         </is>
       </c>
       <c r="C32" t="n">
+        <v>10</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6.066666666666666</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8.266666666666667</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.933333333333334</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6.266666666666666</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6.533333333333335</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.133333333333333</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.066666666666666</v>
+      </c>
+      <c r="O32" t="n">
+        <v>9.466666666666667</v>
+      </c>
+      <c r="P32" t="n">
         <v>8.133333333333333</v>
       </c>
-      <c r="D32" t="n">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>13.93333333333333</v>
+      <c r="Q32" t="n">
+        <v>3.800000000000001</v>
+      </c>
+      <c r="R32" t="n">
+        <v>38.33333333333334</v>
+      </c>
+      <c r="S32" t="n">
+        <v>43.3</v>
       </c>
     </row>
     <row r="33">
@@ -1221,16 +2495,55 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>8.662656976231562</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7.85894736842105</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>24</v>
+      </c>
+      <c r="S33" t="n">
+        <v>16.52160434465261</v>
       </c>
     </row>
     <row r="34">
@@ -1245,16 +2558,55 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>-3.081595839893664</v>
+        <v>9.235434770111572</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.081595839893664</v>
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>10</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J34" t="n">
+        <v>10</v>
+      </c>
+      <c r="K34" t="n">
+        <v>10</v>
+      </c>
+      <c r="L34" t="n">
+        <v>10</v>
+      </c>
+      <c r="M34" t="n">
+        <v>10</v>
+      </c>
+      <c r="N34" t="n">
+        <v>10</v>
+      </c>
+      <c r="O34" t="n">
+        <v>9.924035310753522</v>
+      </c>
+      <c r="P34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>10</v>
+      </c>
+      <c r="R34" t="n">
+        <v>59.92403531075352</v>
+      </c>
+      <c r="S34" t="n">
+        <v>59.23543477011157</v>
       </c>
     </row>
     <row r="35">
@@ -1269,16 +2621,55 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>7.043534861191003</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.487714908653638</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>7.012189166437789</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9.985754985754987</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8.338242453192226</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10</v>
+      </c>
+      <c r="J35" t="n">
+        <v>10</v>
+      </c>
+      <c r="K35" t="n">
+        <v>10</v>
+      </c>
+      <c r="L35" t="n">
+        <v>10</v>
+      </c>
+      <c r="M35" t="n">
+        <v>10</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8.632127192982455</v>
+      </c>
+      <c r="O35" t="n">
+        <v>7.455557861243689</v>
+      </c>
+      <c r="P35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>10</v>
+      </c>
+      <c r="R35" t="n">
+        <v>60.14340908185494</v>
+      </c>
+      <c r="S35" t="n">
+        <v>54.81171234760085</v>
       </c>
     </row>
     <row r="36">
@@ -1293,16 +2684,55 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="D36" t="n">
-        <v>9.133333333333333</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2.666666666666668</v>
       </c>
       <c r="F36" t="n">
-        <v>19.13333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.6666666666666679</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>10</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.6666666666666679</v>
+      </c>
+      <c r="N36" t="n">
+        <v>10</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>8.466666666666667</v>
+      </c>
+      <c r="R36" t="n">
+        <v>28.83333333333334</v>
+      </c>
+      <c r="S36" t="n">
+        <v>22.4</v>
       </c>
     </row>
     <row r="37">
@@ -1317,16 +2747,55 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>7.852063135800161</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>17.85206313580016</v>
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>10</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>10</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>7.020782027702444</v>
+      </c>
+      <c r="R37" t="n">
+        <v>17</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1341,16 +2810,55 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.181656016959636</v>
+        <v>7.614769866015459</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>7.31262668606617</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>7.247807523057105</v>
       </c>
       <c r="F38" t="n">
-        <v>18.18165601695964</v>
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>8.897626167111405</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8.011764383339065</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8.24343011593729</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.576886381203278</v>
+      </c>
+      <c r="K38" t="n">
+        <v>8.38628219936235</v>
+      </c>
+      <c r="L38" t="n">
+        <v>9.40653441164271</v>
+      </c>
+      <c r="M38" t="n">
+        <v>8.700332036793192</v>
+      </c>
+      <c r="N38" t="n">
+        <v>10</v>
+      </c>
+      <c r="O38" t="n">
+        <v>8.37045651848498</v>
+      </c>
+      <c r="P38" t="n">
+        <v>9.375899187029475</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>10</v>
+      </c>
+      <c r="R38" t="n">
+        <v>51.21207729328372</v>
+      </c>
+      <c r="S38" t="n">
+        <v>48.55643899572929</v>
       </c>
     </row>
     <row r="39">
@@ -1374,7 +2882,46 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>7.012189166437789</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.552844288546591</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>10</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6.155555555555556</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5.80212038780777</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="n">
+        <v>10</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>38.96986510980111</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10.55284428854659</v>
       </c>
     </row>
     <row r="40">
@@ -1389,16 +2936,55 @@
         </is>
       </c>
       <c r="C40" t="n">
+        <v>10</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.866666666666667</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.6666666666666679</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9.166666666666666</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>10</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.6666666666666679</v>
+      </c>
+      <c r="M40" t="n">
+        <v>6.333333333333332</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.133333333333333</v>
+      </c>
+      <c r="O40" t="n">
+        <v>10</v>
+      </c>
+      <c r="P40" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="D40" t="n">
-        <v>8.233333333333333</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>17.43333333333333</v>
+      <c r="Q40" t="n">
+        <v>6.533333333333335</v>
+      </c>
+      <c r="R40" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="S40" t="n">
+        <v>33.03333333333333</v>
       </c>
     </row>
     <row r="41">
@@ -1413,16 +2999,55 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" t="n">
+        <v>7</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>9.481724493749979</v>
+      </c>
+      <c r="P41" t="n">
         <v>7.641766140418432</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>7.641766140418432</v>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>26.48172449374998</v>
+      </c>
+      <c r="S41" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -2222,7 +2222,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.800000000000001</v>
+        <v>8.233333333333333</v>
       </c>
       <c r="R28" t="n">
         <v>50.7</v>
@@ -2474,7 +2474,7 @@
         <v>8.133333333333333</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.800000000000001</v>
+        <v>7.733333333333334</v>
       </c>
       <c r="R32" t="n">
         <v>38.33333333333334</v>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2828,25 +2828,25 @@
         <v>8.011764383339065</v>
       </c>
       <c r="I38" t="n">
-        <v>8.24343011593729</v>
+        <v>8.574825449008554</v>
       </c>
       <c r="J38" t="n">
         <v>7.576886381203278</v>
       </c>
       <c r="K38" t="n">
-        <v>8.38628219936235</v>
+        <v>8.443528309852088</v>
       </c>
       <c r="L38" t="n">
-        <v>9.40653441164271</v>
+        <v>10</v>
       </c>
       <c r="M38" t="n">
-        <v>8.700332036793192</v>
+        <v>8.712627012044523</v>
       </c>
       <c r="N38" t="n">
         <v>10</v>
       </c>
       <c r="O38" t="n">
-        <v>8.37045651848498</v>
+        <v>8.380638779578707</v>
       </c>
       <c r="P38" t="n">
         <v>9.375899187029475</v>
@@ -2855,10 +2855,10 @@
         <v>10</v>
       </c>
       <c r="R38" t="n">
-        <v>51.21207729328372</v>
+        <v>52.14712047580599</v>
       </c>
       <c r="S38" t="n">
-        <v>48.55643899572929</v>
+        <v>48.62598008147036</v>
       </c>
     </row>
     <row r="39">
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>5.80212038780777</v>
+        <v>7.955367995613777</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>38.96986510980111</v>
+        <v>41.12311271760712</v>
       </c>
       <c r="S39" t="n">
         <v>10.55284428854659</v>
@@ -2942,7 +2942,7 @@
         <v>6.866666666666667</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6666666666666679</v>
+        <v>9.366666666666667</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>9.166666666666666</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5.133333333333333</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>0.6666666666666679</v>
       </c>
       <c r="M40" t="n">
-        <v>6.333333333333332</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="N40" t="n">
         <v>7.133333333333333</v>
@@ -2981,10 +2981,10 @@
         <v>6.533333333333335</v>
       </c>
       <c r="R40" t="n">
-        <v>27.8</v>
+        <v>32.93333333333334</v>
       </c>
       <c r="S40" t="n">
-        <v>33.03333333333333</v>
+        <v>37.26666666666667</v>
       </c>
     </row>
     <row r="41">
@@ -3048,6 +3048,258 @@
       </c>
       <c r="S41" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7.957633557948557</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.158004779837222</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.156048126901347</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>8.359864227616825</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9.015178861902983</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10</v>
+      </c>
+      <c r="J42" t="n">
+        <v>7.745040218801943</v>
+      </c>
+      <c r="K42" t="n">
+        <v>8.024540805852512</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.657884689744085</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5.906023809253822</v>
+      </c>
+      <c r="N42" t="n">
+        <v>9.392846716372125</v>
+      </c>
+      <c r="O42" t="n">
+        <v>10</v>
+      </c>
+      <c r="P42" t="n">
+        <v>9.279198707430965</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>9.627912661454999</v>
+      </c>
+      <c r="R42" t="n">
+        <v>53.75340518286671</v>
+      </c>
+      <c r="S42" t="n">
+        <v>42.61966061136471</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6.320313231091886</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7.012189166437789</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6.708865174025249</v>
+      </c>
+      <c r="I43" t="n">
+        <v>10</v>
+      </c>
+      <c r="J43" t="n">
+        <v>7.004581901489118</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>6.499616377205832</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>10</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>40.51638744513274</v>
+      </c>
+      <c r="S43" t="n">
+        <v>18.02917840511714</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.666666666666668</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>10</v>
+      </c>
+      <c r="L44" t="n">
+        <v>10</v>
+      </c>
+      <c r="M44" t="n">
+        <v>10</v>
+      </c>
+      <c r="N44" t="n">
+        <v>9.633333333333333</v>
+      </c>
+      <c r="O44" t="n">
+        <v>10</v>
+      </c>
+      <c r="P44" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9</v>
+      </c>
+      <c r="R44" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9.136752136752134</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+      <c r="I45" t="n">
+        <v>7</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>8.514423076923084</v>
+      </c>
+      <c r="L45" t="n">
+        <v>10</v>
+      </c>
+      <c r="M45" t="n">
+        <v>10</v>
+      </c>
+      <c r="N45" t="n">
+        <v>8.977874180830444</v>
+      </c>
+      <c r="O45" t="n">
+        <v>8.227800539013149</v>
+      </c>
+      <c r="P45" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>7.685806914180618</v>
+      </c>
+      <c r="R45" t="n">
+        <v>44.20567471984359</v>
+      </c>
+      <c r="S45" t="n">
+        <v>47.65117521367522</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3062,10 +3062,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7.957633557948557</v>
+        <v>7.968477363933855</v>
       </c>
       <c r="D42" t="n">
-        <v>9.158004779837222</v>
+        <v>9.313522120510722</v>
       </c>
       <c r="E42" t="n">
         <v>2.156048126901347</v>
@@ -3077,7 +3077,7 @@
         <v>8.359864227616825</v>
       </c>
       <c r="H42" t="n">
-        <v>9.015178861902983</v>
+        <v>9.055937390342661</v>
       </c>
       <c r="I42" t="n">
         <v>10</v>
@@ -3086,31 +3086,31 @@
         <v>7.745040218801943</v>
       </c>
       <c r="K42" t="n">
-        <v>8.024540805852512</v>
+        <v>8.084328947552111</v>
       </c>
       <c r="L42" t="n">
-        <v>8.657884689744085</v>
+        <v>8.919544052861259</v>
       </c>
       <c r="M42" t="n">
         <v>5.906023809253822</v>
       </c>
       <c r="N42" t="n">
-        <v>9.392846716372125</v>
+        <v>9.401539643177957</v>
       </c>
       <c r="O42" t="n">
         <v>10</v>
       </c>
       <c r="P42" t="n">
-        <v>9.279198707430965</v>
+        <v>9.624790241519511</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.627912661454999</v>
+        <v>9.650837389529386</v>
       </c>
       <c r="R42" t="n">
-        <v>53.75340518286671</v>
+        <v>54.03460127877501</v>
       </c>
       <c r="S42" t="n">
-        <v>42.61966061136471</v>
+        <v>42.87572462217749</v>
       </c>
     </row>
     <row r="43">
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>6.320313231091886</v>
+        <v>6.660516640330285</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>40.51638744513274</v>
       </c>
       <c r="S43" t="n">
-        <v>18.02917840511714</v>
+        <v>18.36938181435553</v>
       </c>
     </row>
     <row r="44">
@@ -3300,6 +3300,510 @@
       </c>
       <c r="S45" t="n">
         <v>47.65117521367522</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>9.582195164571502</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8.174878183144823</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9.838525008689016</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9.946655206376663</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8.712627012044523</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6.293568838949453</v>
+      </c>
+      <c r="K46" t="n">
+        <v>9.707120308838819</v>
+      </c>
+      <c r="L46" t="n">
+        <v>8.623686623919362</v>
+      </c>
+      <c r="M46" t="n">
+        <v>8.024540805852512</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10</v>
+      </c>
+      <c r="O46" t="n">
+        <v>8.387409739317997</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.400490435382177</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>10</v>
+      </c>
+      <c r="R46" t="n">
+        <v>51.59948737880283</v>
+      </c>
+      <c r="S46" t="n">
+        <v>45.69171951290183</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5.303030303030303</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5.085120871637725</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7.012189166437789</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7.694321590158101</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7.824858757062147</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7.239049014818433</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5.572737686139748</v>
+      </c>
+      <c r="K47" t="n">
+        <v>7.136752136752136</v>
+      </c>
+      <c r="L47" t="n">
+        <v>5.244123596289321</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5.123365408339501</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7.317508515461169</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>10</v>
+      </c>
+      <c r="R47" t="n">
+        <v>37.68863828217676</v>
+      </c>
+      <c r="S47" t="n">
+        <v>32.86441876394961</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>8.633333333333333</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8.066666666666666</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.933333333333334</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>10</v>
+      </c>
+      <c r="L48" t="n">
+        <v>9.333333333333334</v>
+      </c>
+      <c r="M48" t="n">
+        <v>7.133333333333333</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>10</v>
+      </c>
+      <c r="P48" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>8.966666666666667</v>
+      </c>
+      <c r="R48" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="S48" t="n">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7.717965512463628</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9.331002331002328</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>7</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.182748538011698</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>7.235110741513159</v>
+      </c>
+      <c r="P49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>7.644242858775732</v>
+      </c>
+      <c r="R49" t="n">
+        <v>21.41785927952485</v>
+      </c>
+      <c r="S49" t="n">
+        <v>17.04896784346596</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>4.015030487774472</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.193838138126388</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4.650665268934802</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.5281647048759295</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-1.271049816030665</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.296404329581508</v>
+      </c>
+      <c r="K50" t="n">
+        <v>5.477580870558715</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-8.612975372900332</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4.641444042057166</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4.717062439275012</v>
+      </c>
+      <c r="O50" t="n">
+        <v>4.627564263195182</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4.593091509247786</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7.772036330895176</v>
+      </c>
+      <c r="S50" t="n">
+        <v>16.43536361480114</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7.012189166437789</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7.012189166437789</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.199999999999999</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>9.433333333333334</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>10</v>
+      </c>
+      <c r="L52" t="n">
+        <v>9.133333333333333</v>
+      </c>
+      <c r="M52" t="n">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="N52" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="O52" t="n">
+        <v>10</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>10</v>
+      </c>
+      <c r="R52" t="n">
+        <v>48.83333333333333</v>
+      </c>
+      <c r="S52" t="n">
+        <v>38.03333333333333</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>7</v>
+      </c>
+      <c r="N53" t="n">
+        <v>9.056989148063661</v>
+      </c>
+      <c r="O53" t="n">
+        <v>7.966566381776307</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>9.098984797946736</v>
+      </c>
+      <c r="R53" t="n">
+        <v>34.02355552983997</v>
+      </c>
+      <c r="S53" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3566,10 +3566,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4.015030487774472</v>
+        <v>8.543836578816945</v>
       </c>
       <c r="D50" t="n">
-        <v>2.193838138126388</v>
+        <v>8.571061684930758</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -3578,43 +3578,43 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>4.650665268934802</v>
+        <v>9.243517794660328</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.5281647048759295</v>
+        <v>8.663780572288148</v>
       </c>
       <c r="I50" t="n">
-        <v>-1.271049816030665</v>
+        <v>8.317923182355647</v>
       </c>
       <c r="J50" t="n">
-        <v>4.296404329581508</v>
+        <v>8.822609931346792</v>
       </c>
       <c r="K50" t="n">
-        <v>5.477580870558715</v>
+        <v>10</v>
       </c>
       <c r="L50" t="n">
         <v>-8.612975372900332</v>
       </c>
       <c r="M50" t="n">
-        <v>4.641444042057166</v>
+        <v>10</v>
       </c>
       <c r="N50" t="n">
-        <v>4.717062439275012</v>
+        <v>10</v>
       </c>
       <c r="O50" t="n">
-        <v>4.627564263195182</v>
+        <v>9.746517515065344</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>9.281378323575629</v>
       </c>
       <c r="Q50" t="n">
-        <v>4.593091509247786</v>
+        <v>10</v>
       </c>
       <c r="R50" t="n">
-        <v>7.772036330895176</v>
+        <v>36.81791183468439</v>
       </c>
       <c r="S50" t="n">
-        <v>16.43536361480114</v>
+        <v>46.47836005187924</v>
       </c>
     </row>
     <row r="51">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>5.1701017046192</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -3641,43 +3641,43 @@
         <v>7.012189166437789</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>8.73931623931624</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>6.081118783566994</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>6.997561503365333</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>5.191673636617089</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>6.038552365748215</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R51" t="n">
-        <v>7.012189166437789</v>
+        <v>35.23997667216842</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>39.99053672750244</v>
       </c>
     </row>
     <row r="52">
@@ -3804,6 +3804,258 @@
       </c>
       <c r="S53" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>-1.838718911040107</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-11.35347578182325</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.9183173432202323</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.7737727970674968</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-3.882692789585549</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-8.705606858022938</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-2.65027648395297</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-16.30111468538141</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.9183173432202323</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5.1701017046192</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7.012189166437789</v>
+      </c>
+      <c r="G55" t="n">
+        <v>6.270906410451934</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6.997561503365333</v>
+      </c>
+      <c r="K55" t="n">
+        <v>10</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>14.00975066980312</v>
+      </c>
+      <c r="S55" t="n">
+        <v>26.44100811507113</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>8.633333333333333</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>7.866666666666667</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.733333333333334</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="R56" t="n">
+        <v>10.36666666666667</v>
+      </c>
+      <c r="S56" t="n">
+        <v>7.866666666666667</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>7.270343336036768</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>7.270343336036768</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
         <v>9.838525008689016</v>
@@ -3359,7 +3359,7 @@
         <v>10</v>
       </c>
       <c r="R46" t="n">
-        <v>51.59948737880283</v>
+        <v>61.59948737880283</v>
       </c>
       <c r="S46" t="n">
         <v>45.69171951290183</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>7.012189166437789</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
         <v>7.694321590158101</v>
@@ -3410,7 +3410,7 @@
         <v>5.123365408339501</v>
       </c>
       <c r="N47" t="n">
-        <v>7.317508515461169</v>
+        <v>8.363001078827111</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>10</v>
       </c>
       <c r="R47" t="n">
-        <v>37.68863828217676</v>
+        <v>41.72194167910492</v>
       </c>
       <c r="S47" t="n">
         <v>32.86441876394961</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>0.9408422596008991</v>
       </c>
       <c r="G50" t="n">
         <v>9.243517794660328</v>
@@ -3593,7 +3593,7 @@
         <v>10</v>
       </c>
       <c r="L50" t="n">
-        <v>-8.612975372900332</v>
+        <v>9.424610712170567</v>
       </c>
       <c r="M50" t="n">
         <v>10</v>
@@ -3611,7 +3611,7 @@
         <v>10</v>
       </c>
       <c r="R50" t="n">
-        <v>36.81791183468439</v>
+        <v>55.79634017935619</v>
       </c>
       <c r="S50" t="n">
         <v>46.47836005187924</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>7.012189166437789</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>8.73931623931624</v>
@@ -3656,13 +3656,13 @@
         <v>10</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>5.941619585687382</v>
       </c>
       <c r="M51" t="n">
         <v>10</v>
       </c>
       <c r="N51" t="n">
-        <v>5.191673636617089</v>
+        <v>6.132616943646436</v>
       </c>
       <c r="O51" t="n">
         <v>6.038552365748215</v>
@@ -3674,7 +3674,7 @@
         <v>10</v>
       </c>
       <c r="R51" t="n">
-        <v>35.23997667216842</v>
+        <v>35.11035039844737</v>
       </c>
       <c r="S51" t="n">
         <v>39.99053672750244</v>
@@ -3818,55 +3818,55 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-1.838718911040107</v>
+        <v>9.332761839519099</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>7.467115633468339</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.2969140026353995</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>9.070459600795701</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I54" t="n">
-        <v>-11.35347578182325</v>
+        <v>10</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>9.863732834603985</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>9.299092612587293</v>
       </c>
       <c r="M54" t="n">
-        <v>0.9183173432202323</v>
+        <v>8.531918919887604</v>
       </c>
       <c r="N54" t="n">
-        <v>0.7737727970674968</v>
+        <v>10</v>
       </c>
       <c r="O54" t="n">
-        <v>-3.882692789585549</v>
+        <v>9.515892079774515</v>
       </c>
       <c r="P54" t="n">
-        <v>-8.705606858022938</v>
+        <v>10</v>
       </c>
       <c r="Q54" t="n">
-        <v>-2.65027648395297</v>
+        <v>10</v>
       </c>
       <c r="R54" t="n">
-        <v>-16.30111468538141</v>
+        <v>58.3083933691203</v>
       </c>
       <c r="S54" t="n">
-        <v>0.9183173432202323</v>
+        <v>45.06949415415164</v>
       </c>
     </row>
     <row r="55">
@@ -3884,52 +3884,52 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>5.1701017046192</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>7.012189166437789</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>6.270906410451934</v>
+        <v>6.335470085470085</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>9.418344370151321</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J55" t="n">
-        <v>6.997561503365333</v>
+        <v>10</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>6.722853091440865</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>6.429866778266025</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>6.306865704207428</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>7.317216573286298</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>6.244444444444444</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>14.00975066980312</v>
+        <v>40.05394905575974</v>
       </c>
       <c r="S55" t="n">
-        <v>26.44100811507113</v>
+        <v>27.47666754706227</v>
       </c>
     </row>
     <row r="56">
@@ -3947,7 +3947,7 @@
         <v>8.633333333333333</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -3959,19 +3959,19 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>9.966666666666667</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>8.733333333333333</v>
       </c>
       <c r="M56" t="n">
         <v>7.866666666666667</v>
@@ -3980,19 +3980,19 @@
         <v>1.733333333333334</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>9.033333333333333</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q56" t="n">
         <v>7.399999999999999</v>
       </c>
       <c r="R56" t="n">
-        <v>10.36666666666667</v>
+        <v>38.13333333333333</v>
       </c>
       <c r="S56" t="n">
-        <v>7.866666666666667</v>
+        <v>37.83333333333334</v>
       </c>
     </row>
     <row r="57">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -4022,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>7.202105263157894</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -4046,16 +4046,268 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>9.310358105506356</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S57" t="n">
-        <v>7.270343336036768</v>
+        <v>24.47244859919466</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>6.398844880446932</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.2276847321393463</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7.405866861022643</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5.697982251741474</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6.711042531874136</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5.157989775476836</v>
+      </c>
+      <c r="K58" t="n">
+        <v>5.805912347530634</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.599131426246492</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4.337113151265865</v>
+      </c>
+      <c r="N58" t="n">
+        <v>7.627653524032286</v>
+      </c>
+      <c r="O58" t="n">
+        <v>6.447576870117802</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5.750736182099799</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>8.822429186727156</v>
+      </c>
+      <c r="R58" t="n">
+        <v>35.94223900819448</v>
+      </c>
+      <c r="S58" t="n">
+        <v>23.47455934369996</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.97934472934473</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5.107043459644616</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7.551020408163265</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7.551020408163265</v>
+      </c>
+      <c r="S59" t="n">
+        <v>16.08638818898935</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>10</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.199999999999999</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+      <c r="I60" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>10</v>
+      </c>
+      <c r="L60" t="n">
+        <v>10</v>
+      </c>
+      <c r="M60" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="N60" t="n">
+        <v>10</v>
+      </c>
+      <c r="O60" t="n">
+        <v>10</v>
+      </c>
+      <c r="P60" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>9.066666666666666</v>
+      </c>
+      <c r="R60" t="n">
+        <v>50</v>
+      </c>
+      <c r="S60" t="n">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>9.664375982761632</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>10</v>
+      </c>
+      <c r="H61" t="n">
+        <v>8.566315789473684</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>7.576923076923083</v>
+      </c>
+      <c r="L61" t="n">
+        <v>9.878289473684212</v>
+      </c>
+      <c r="M61" t="n">
+        <v>8.969644305410728</v>
+      </c>
+      <c r="N61" t="n">
+        <v>10</v>
+      </c>
+      <c r="O61" t="n">
+        <v>8.280047370460514</v>
+      </c>
+      <c r="P61" t="n">
+        <v>8.796945193171611</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>7.768935024990389</v>
+      </c>
+      <c r="R61" t="n">
+        <v>44.82271282690636</v>
+      </c>
+      <c r="S61" t="n">
+        <v>35.1128831718075</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4112,7 +4112,7 @@
         <v>5.750736182099799</v>
       </c>
       <c r="Q58" t="n">
-        <v>8.822429186727156</v>
+        <v>9.586764750510225</v>
       </c>
       <c r="R58" t="n">
         <v>35.94223900819448</v>
@@ -4308,6 +4308,510 @@
       </c>
       <c r="S61" t="n">
         <v>35.1128831718075</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.3056588011346539</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>8.066666666666666</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4814,6 +4814,510 @@
         <v>0</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5318,6 +5318,258 @@
         <v>0</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5570,6 +5570,762 @@
         <v>0</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-11-23</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-11-23</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-11-23</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-11-23</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -3572,7 +3572,7 @@
         <v>8.571061684930758</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>8.65933836829641</v>
       </c>
       <c r="F50" t="n">
         <v>0.9408422596008991</v>
@@ -3614,7 +3614,7 @@
         <v>55.79634017935619</v>
       </c>
       <c r="S50" t="n">
-        <v>46.47836005187924</v>
+        <v>55.13769842017565</v>
       </c>
     </row>
     <row r="51">
@@ -3698,7 +3698,7 @@
         <v>1.199999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>48.83333333333333</v>
       </c>
       <c r="S52" t="n">
-        <v>38.03333333333333</v>
+        <v>47.86666666666667</v>
       </c>
     </row>
     <row r="53">
@@ -3824,10 +3824,10 @@
         <v>7.467115633468339</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2969140026353995</v>
+        <v>8.690865549442515</v>
       </c>
       <c r="G54" t="n">
         <v>9.070459600795701</v>
@@ -3863,10 +3863,10 @@
         <v>10</v>
       </c>
       <c r="R54" t="n">
-        <v>58.3083933691203</v>
+        <v>66.70234491592741</v>
       </c>
       <c r="S54" t="n">
-        <v>45.06949415415164</v>
+        <v>55.06949415415164</v>
       </c>
     </row>
     <row r="55">
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>40.05394905575974</v>
       </c>
       <c r="S55" t="n">
-        <v>27.47666754706227</v>
+        <v>37.47666754706227</v>
       </c>
     </row>
     <row r="56">
@@ -3950,7 +3950,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>5.866666666666667</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>38.13333333333333</v>
       </c>
       <c r="S56" t="n">
-        <v>37.83333333333334</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="57">
@@ -4070,34 +4070,34 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6.398844880446932</v>
+        <v>9.571049638334092</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2276847321393463</v>
+        <v>5.961346288739644</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>9.331285791736059</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>7.405866861022643</v>
+        <v>9.752264859836558</v>
       </c>
       <c r="H58" t="n">
-        <v>5.697982251741474</v>
+        <v>10</v>
       </c>
       <c r="I58" t="n">
-        <v>6.711042531874136</v>
+        <v>8.749242538296343</v>
       </c>
       <c r="J58" t="n">
-        <v>5.157989775476836</v>
+        <v>7.423970393230333</v>
       </c>
       <c r="K58" t="n">
-        <v>5.805912347530634</v>
+        <v>8.955561117469689</v>
       </c>
       <c r="L58" t="n">
-        <v>3.599131426246492</v>
+        <v>10</v>
       </c>
       <c r="M58" t="n">
         <v>4.337113151265865</v>
@@ -4115,10 +4115,10 @@
         <v>9.586764750510225</v>
       </c>
       <c r="R58" t="n">
-        <v>35.94223900819448</v>
+        <v>59.81949296401085</v>
       </c>
       <c r="S58" t="n">
-        <v>23.47455934369996</v>
+        <v>48.33757120904782</v>
       </c>
     </row>
     <row r="59">
@@ -4133,34 +4133,34 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>6.252271839750766</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>5.97934472934473</v>
+        <v>7.938034188034188</v>
       </c>
       <c r="H59" t="n">
-        <v>5.107043459644616</v>
+        <v>8.63485075163177</v>
       </c>
       <c r="I59" t="n">
-        <v>7.551020408163265</v>
+        <v>10</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>5.258879569224397</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>7.045445533859917</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
@@ -4178,10 +4178,10 @@
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>7.551020408163265</v>
+        <v>33.15655664497103</v>
       </c>
       <c r="S59" t="n">
-        <v>16.08638818898935</v>
+        <v>33.08403634864112</v>
       </c>
     </row>
     <row r="60">
@@ -4202,7 +4202,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>50</v>
       </c>
       <c r="S60" t="n">
-        <v>43.6</v>
+        <v>51.76666666666667</v>
       </c>
     </row>
     <row r="61">
@@ -4322,34 +4322,34 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>9.107079581532631</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>9.208164732019887</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>7.811910647965362</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>9.898324667549232</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -4367,10 +4367,10 @@
         <v>0.3056588011346539</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>46.81731489704723</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>49.20816473201989</v>
       </c>
     </row>
     <row r="63">
@@ -4388,31 +4388,31 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>6.428314313389791</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>7.745025856313139</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -4430,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>44.17334016970293</v>
       </c>
     </row>
     <row r="64">
@@ -4448,34 +4448,34 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>6.866666666666667</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>5.133333333333333</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>5.333333333333332</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -4493,10 +4493,10 @@
         <v>8.066666666666666</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>35.66666666666666</v>
       </c>
     </row>
     <row r="65">
@@ -4511,10 +4511,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -4523,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>9.010233918128657</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -4556,10 +4556,10 @@
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>26.01023391812866</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -4574,34 +4574,34 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>9.225544149521696</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>9.956519335415431</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>9.216388261705296</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>9.800808863952295</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>9.286277262581713</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>8.232426303736583</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>8.689639637336755</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>9.451542940797054</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -4619,10 +4619,10 @@
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>46.19579065663704</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>37.66335609840978</v>
       </c>
     </row>
     <row r="67">
@@ -4640,31 +4640,31 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>5.999003377778702</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>7.079056280571519</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>5.80212038780777</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -4682,10 +4682,10 @@
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>35.80212038780777</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>33.07805965835022</v>
       </c>
     </row>
     <row r="68">
@@ -4700,31 +4700,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>9.733333333333333</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1.333333333333332</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>4.333333333333332</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4745,10 +4745,10 @@
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>16.73333333333333</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>33.46666666666667</v>
       </c>
     </row>
     <row r="69">
@@ -4763,16 +4763,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>9.229471854492321</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -4808,10 +4808,10 @@
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>9.229471854492321</v>
       </c>
     </row>
     <row r="70">
@@ -4826,34 +4826,34 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>7.182758693942684</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>6.23309044743496</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>9.172992312085041</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>9.774780802203034</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>7.084283056926898</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>7.199965340324836</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>8.166273123345023</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>9.336320678823146</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -4871,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>40.80332777001756</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>43.34713668506806</v>
       </c>
     </row>
     <row r="71">
@@ -4895,28 +4895,28 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>9.00235000367188</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>7.554986788991854</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>6.118397641197701</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>8.871102741159238</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>6.145475372279496</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>6.429866778266025</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -4934,10 +4934,10 @@
         <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>20.13032893953737</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>23.99185038602882</v>
       </c>
     </row>
     <row r="72">
@@ -4952,13 +4952,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -4967,19 +4967,19 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -4997,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>9.708054277561004</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -5030,10 +5030,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>8.970526315789472</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -5060,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>16.708054277561</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>28.97052631578947</v>
       </c>
     </row>
     <row r="74">
@@ -5078,34 +5078,34 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>9.152947078859114</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>7.634770417203429</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>7.943120135055311</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>9.967387634462355</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>8.777250456252737</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>8.04958279881704</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>8.428120838475408</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -5123,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>45.63065071615156</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>44.32252864297384</v>
       </c>
     </row>
     <row r="75">
@@ -5144,31 +5144,31 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>5.65599580162687</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>8.037466320980123</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>6.360117179326219</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>5.992305813385443</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>9.289600334798076</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -5186,10 +5186,10 @@
         <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>35.28190614818352</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>30.05357930193321</v>
       </c>
     </row>
     <row r="76">
@@ -5204,34 +5204,34 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>8.533333333333333</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>4.533333333333335</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>9.366666666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>9.366666666666667</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -5249,10 +5249,10 @@
         <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>36.4</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="77">
@@ -5270,22 +5270,22 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>7.415664244057891</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>8.616842105263155</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>7.228435672514621</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -5312,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>21.22843567251462</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>16.03250634932105</v>
       </c>
     </row>
     <row r="78">
@@ -5330,34 +5330,34 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>8.881537344054129</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>-0.4626119780781837</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>8.787307576633133</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>9.371866531154023</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>7.933305570461463</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>-8.294822176616027</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>7.939684126510085</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>9.260687365321873</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>8.926527490569269</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -5375,10 +5375,10 @@
         <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>27.45292678451746</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>34.89055506549231</v>
       </c>
     </row>
     <row r="79">
@@ -5393,31 +5393,31 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>5.096551191441702</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>5.126634230986033</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>8.294159544159545</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>5.535217298223079</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>5.395152002712106</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>5.508750508750508</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -5438,10 +5438,10 @@
         <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>20.49170319415381</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>24.46476158211917</v>
       </c>
     </row>
     <row r="80">
@@ -5456,34 +5456,34 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>7.666666666666668</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>9.466666666666667</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>8.766666666666667</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -5501,10 +5501,10 @@
         <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>35.56666666666667</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>32.33333333333334</v>
       </c>
     </row>
     <row r="81">
@@ -5519,7 +5519,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>8.528740317977988</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -5528,16 +5528,16 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>8.31118881118881</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -5564,10 +5564,10 @@
         <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>22.52874031797799</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>8.31118881118881</v>
       </c>
     </row>
     <row r="82">
@@ -5582,34 +5582,34 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>9.704546944707554</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>8.091917225443572</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1.789496662494619</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>0.4745901028461185</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>8.099230051167048</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>8.533358058520353</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>4.739465758314016</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -5627,10 +5627,10 @@
         <v>0</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>24.76686742403654</v>
       </c>
       <c r="S82" t="n">
-        <v>0</v>
+        <v>36.66573737945674</v>
       </c>
     </row>
     <row r="83">
@@ -5648,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -5666,10 +5666,10 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>6.425272395989181</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -5690,10 +5690,10 @@
         <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>6.425272395989181</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -5708,22 +5708,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>8.866666666666667</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>7.666666666666668</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -5732,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>8.733333333333333</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>18.1</v>
       </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>45.26666666666667</v>
       </c>
     </row>
     <row r="85">
@@ -5774,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>8.624869317680844</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>7.449694207938604</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>8.920000000000002</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>8.23355263157895</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -5816,10 +5816,10 @@
         <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>8.23355263157895</v>
       </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>24.99456352561945</v>
       </c>
     </row>
     <row r="86">
@@ -5834,31 +5834,31 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>9.920518102021607</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-8.848894177440533</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>3.850440538618294</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>8.10811098604059</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>7.161124904630816</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>8.38628219936235</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -5879,10 +5879,10 @@
         <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>17.08164300665242</v>
       </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>21.4959395465807</v>
       </c>
     </row>
     <row r="87">
@@ -5909,19 +5909,19 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>5.294724432655467</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>9.581901489117985</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>6.087294190742466</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -5942,10 +5942,10 @@
         <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>9.581901489117985</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>21.38201862339793</v>
       </c>
     </row>
     <row r="88">
@@ -5960,13 +5960,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>8.366666666666667</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>9.366666666666667</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -6005,10 +6005,10 @@
         <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>37.73333333333333</v>
       </c>
     </row>
     <row r="89">
@@ -6023,10 +6023,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>8.058054439420085</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -6068,10 +6068,10 @@
         <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>8.058054439420085</v>
       </c>
     </row>
     <row r="90">
@@ -6086,7 +6086,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>-4.829934222458974</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -6098,10 +6098,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>-10.60860430821362</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>-3.356514447164516</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6131,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>-4.829934222458974</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>-13.96511875537813</v>
       </c>
     </row>
     <row r="91">

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -1067,7 +1067,7 @@
         <v>2.780318956696957</v>
       </c>
       <c r="J10" t="n">
-        <v>3.917284622530796</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>9.701224489724348</v>
       </c>
       <c r="R10" t="n">
-        <v>31.39627149788934</v>
+        <v>37.47898687535854</v>
       </c>
       <c r="S10" t="n">
         <v>2.588481455402818</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>5.737065401071441</v>
       </c>
       <c r="R11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S11" t="n">
         <v>12.03428521665612</v>
@@ -1319,7 +1319,7 @@
         <v>8.833148478401338</v>
       </c>
       <c r="J14" t="n">
-        <v>5.474704453313128</v>
+        <v>8.774770357670263</v>
       </c>
       <c r="K14" t="n">
         <v>7.040016100702364</v>
@@ -1343,7 +1343,7 @@
         <v>9.306179203730617</v>
       </c>
       <c r="R14" t="n">
-        <v>40.76057928045513</v>
+        <v>44.06064518481227</v>
       </c>
       <c r="S14" t="n">
         <v>23.55361697209905</v>
@@ -1382,7 +1382,7 @@
         <v>7.551020408163265</v>
       </c>
       <c r="J15" t="n">
-        <v>5.859106529209622</v>
+        <v>10</v>
       </c>
       <c r="K15" t="n">
         <v>5.880190535362949</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>13.41012693737289</v>
+        <v>17.55102040816326</v>
       </c>
       <c r="S15" t="n">
         <v>10.88019053536295</v>
@@ -4100,7 +4100,7 @@
         <v>10</v>
       </c>
       <c r="M58" t="n">
-        <v>4.337113151265865</v>
+        <v>8.23871863737538</v>
       </c>
       <c r="N58" t="n">
         <v>7.627653524032286</v>
@@ -4118,7 +4118,7 @@
         <v>59.81949296401085</v>
       </c>
       <c r="S58" t="n">
-        <v>48.33757120904782</v>
+        <v>52.23917669515733</v>
       </c>
     </row>
     <row r="59">
@@ -4163,7 +4163,7 @@
         <v>7.045445533859917</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>6.110288675055514</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>33.15655664497103</v>
       </c>
       <c r="S59" t="n">
-        <v>33.08403634864112</v>
+        <v>34.19432502369663</v>
       </c>
     </row>
     <row r="60">
@@ -4352,7 +4352,7 @@
         <v>10</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -4370,7 +4370,7 @@
         <v>46.81731489704723</v>
       </c>
       <c r="S62" t="n">
-        <v>49.20816473201989</v>
+        <v>59.20816473201989</v>
       </c>
     </row>
     <row r="63">
@@ -4415,7 +4415,7 @@
         <v>10</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>30</v>
       </c>
       <c r="S63" t="n">
-        <v>44.17334016970293</v>
+        <v>54.17334016970293</v>
       </c>
     </row>
     <row r="64">
@@ -4478,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -4496,7 +4496,7 @@
         <v>30</v>
       </c>
       <c r="S64" t="n">
-        <v>35.66666666666666</v>
+        <v>45.66666666666666</v>
       </c>
     </row>
     <row r="65">
@@ -4541,7 +4541,7 @@
         <v>9.010233918128657</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>26.01023391812866</v>
       </c>
       <c r="S65" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
@@ -4604,7 +4604,7 @@
         <v>9.451542940797054</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>6.09945646195537</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>46.19579065663704</v>
       </c>
       <c r="S66" t="n">
-        <v>37.66335609840978</v>
+        <v>43.76281256036515</v>
       </c>
     </row>
     <row r="67">
@@ -4667,7 +4667,7 @@
         <v>5.80212038780777</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4685,7 +4685,7 @@
         <v>35.80212038780777</v>
       </c>
       <c r="S67" t="n">
-        <v>33.07805965835022</v>
+        <v>38.07805965835022</v>
       </c>
     </row>
     <row r="68">
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4748,7 +4748,7 @@
         <v>16.73333333333333</v>
       </c>
       <c r="S68" t="n">
-        <v>33.46666666666667</v>
+        <v>43.46666666666667</v>
       </c>
     </row>
     <row r="69">
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>24</v>
       </c>
       <c r="S69" t="n">
-        <v>9.229471854492321</v>
+        <v>19.22947185449232</v>
       </c>
     </row>
     <row r="70">
@@ -4856,7 +4856,7 @@
         <v>9.336320678823146</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>7.455914005483769</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>40.80332777001756</v>
       </c>
       <c r="S70" t="n">
-        <v>43.34713668506806</v>
+        <v>50.80305069055183</v>
       </c>
     </row>
     <row r="71">
@@ -4919,7 +4919,7 @@
         <v>6.429866778266025</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4937,7 +4937,7 @@
         <v>20.13032893953737</v>
       </c>
       <c r="S71" t="n">
-        <v>23.99185038602882</v>
+        <v>28.99185038602882</v>
       </c>
     </row>
     <row r="72">
@@ -4982,7 +4982,7 @@
         <v>7.399999999999999</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>4.133333333333333</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -5000,7 +5000,7 @@
         <v>27.4</v>
       </c>
       <c r="S72" t="n">
-        <v>40</v>
+        <v>44.13333333333333</v>
       </c>
     </row>
     <row r="73">
@@ -5108,7 +5108,7 @@
         <v>10</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>8.667322304192769</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -5126,7 +5126,7 @@
         <v>45.63065071615156</v>
       </c>
       <c r="S74" t="n">
-        <v>44.32252864297384</v>
+        <v>52.9898509471666</v>
       </c>
     </row>
     <row r="75">
@@ -5171,7 +5171,7 @@
         <v>9.289600334798076</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>6.850481125092524</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>35.28190614818352</v>
       </c>
       <c r="S75" t="n">
-        <v>30.05357930193321</v>
+        <v>36.90406042702573</v>
       </c>
     </row>
     <row r="76">
@@ -5234,7 +5234,7 @@
         <v>9.366666666666667</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>7.866666666666667</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>36.4</v>
       </c>
       <c r="S76" t="n">
-        <v>41.5</v>
+        <v>49.36666666666667</v>
       </c>
     </row>
     <row r="77">
@@ -5297,7 +5297,7 @@
         <v>7.228435672514621</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>7.270343336036768</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -5315,7 +5315,7 @@
         <v>21.22843567251462</v>
       </c>
       <c r="S77" t="n">
-        <v>16.03250634932105</v>
+        <v>23.30284968535781</v>
       </c>
     </row>
     <row r="78">
@@ -5360,7 +5360,7 @@
         <v>8.926527490569269</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -5378,7 +5378,7 @@
         <v>27.45292678451746</v>
       </c>
       <c r="S78" t="n">
-        <v>34.89055506549231</v>
+        <v>44.89055506549231</v>
       </c>
     </row>
     <row r="79">
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>20.49170319415381</v>
       </c>
       <c r="S79" t="n">
-        <v>24.46476158211917</v>
+        <v>34.46476158211917</v>
       </c>
     </row>
     <row r="80">
@@ -5486,7 +5486,7 @@
         <v>8.766666666666667</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>7.666666666666668</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -5504,7 +5504,7 @@
         <v>35.56666666666667</v>
       </c>
       <c r="S80" t="n">
-        <v>32.33333333333334</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>7.154481906306725</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -5567,7 +5567,7 @@
         <v>22.52874031797799</v>
       </c>
       <c r="S81" t="n">
-        <v>8.31118881118881</v>
+        <v>15.46567071749553</v>
       </c>
     </row>
     <row r="82">
@@ -5612,7 +5612,7 @@
         <v>4.739465758314016</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>24.76686742403654</v>
       </c>
       <c r="S82" t="n">
-        <v>36.66573737945674</v>
+        <v>46.66573737945674</v>
       </c>
     </row>
     <row r="83">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>6.425272395989181</v>
       </c>
       <c r="S83" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -5738,7 +5738,7 @@
         <v>10</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>18.1</v>
       </c>
       <c r="S84" t="n">
-        <v>45.26666666666667</v>
+        <v>46.06666666666666</v>
       </c>
     </row>
     <row r="85">
@@ -5837,10 +5837,10 @@
         <v>9.920518102021607</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.848894177440533</v>
+        <v>7.598682692677265</v>
       </c>
       <c r="E86" t="n">
-        <v>3.850440538618294</v>
+        <v>8.987939404117505</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -5858,13 +5858,13 @@
         <v>7.161124904630816</v>
       </c>
       <c r="K86" t="n">
-        <v>8.38628219936235</v>
+        <v>9.982149251540919</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>17.08164300665242</v>
       </c>
       <c r="S86" t="n">
-        <v>21.4959395465807</v>
+        <v>54.67688233437627</v>
       </c>
     </row>
     <row r="87">
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>6.064845413820959</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -5921,13 +5921,13 @@
         <v>9.581901489117985</v>
       </c>
       <c r="K87" t="n">
-        <v>6.087294190742466</v>
+        <v>8.158330744537642</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
@@ -5945,7 +5945,7 @@
         <v>9.581901489117985</v>
       </c>
       <c r="S87" t="n">
-        <v>21.38201862339793</v>
+        <v>39.51790059101407</v>
       </c>
     </row>
     <row r="88">
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>3.066666666666666</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
@@ -6008,7 +6008,7 @@
         <v>10</v>
       </c>
       <c r="S88" t="n">
-        <v>37.73333333333333</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="89">
@@ -6086,37 +6086,37 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-4.829934222458974</v>
+        <v>4.538012728600544</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>3.520064119587888</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>-0.8096906366186987</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>-10.60860430821362</v>
+        <v>-8.294822176616027</v>
       </c>
       <c r="H90" t="n">
-        <v>-3.356514447164516</v>
+        <v>1.040745953112029</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>-3.780424073077235</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>2.847370204046599</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1.77128061725175</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -6131,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>-4.829934222458974</v>
+        <v>0.7575886555233091</v>
       </c>
       <c r="S90" t="n">
-        <v>-13.96511875537813</v>
+        <v>0.0749480807635412</v>
       </c>
     </row>
     <row r="91">
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -6197,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -6215,10 +6215,10 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -6236,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93">
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>8.398143366376539</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>8.225961538461538</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>16.62410490483808</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5609,7 +5609,7 @@
         <v>10</v>
       </c>
       <c r="L82" t="n">
-        <v>4.739465758314016</v>
+        <v>8.495208134628575</v>
       </c>
       <c r="M82" t="n">
         <v>10</v>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="R82" t="n">
-        <v>24.76686742403654</v>
+        <v>28.5226098003511</v>
       </c>
       <c r="S82" t="n">
         <v>46.66573737945674</v>
@@ -5672,7 +5672,7 @@
         <v>10</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>5.043312543312544</v>
       </c>
       <c r="M83" t="n">
         <v>10</v>
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>6.425272395989181</v>
+        <v>11.46858493930172</v>
       </c>
       <c r="S83" t="n">
         <v>30</v>
@@ -5861,7 +5861,7 @@
         <v>9.982149251540919</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>8.239575764612583</v>
       </c>
       <c r="M86" t="n">
         <v>10</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>17.08164300665242</v>
+        <v>25.321218771265</v>
       </c>
       <c r="S86" t="n">
         <v>54.67688233437627</v>
@@ -5987,7 +5987,7 @@
         <v>10</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M88" t="n">
         <v>3.066666666666666</v>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>10</v>
+        <v>18.7</v>
       </c>
       <c r="S88" t="n">
         <v>40.8</v>
@@ -6086,13 +6086,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4.538012728600544</v>
+        <v>8.242045077119464</v>
       </c>
       <c r="D90" t="n">
-        <v>3.520064119587888</v>
+        <v>9.532874049622114</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.8096906366186987</v>
+        <v>10</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -6101,22 +6101,22 @@
         <v>-8.294822176616027</v>
       </c>
       <c r="H90" t="n">
-        <v>1.040745953112029</v>
+        <v>10</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>-3.780424073077235</v>
+        <v>8.071134930347315</v>
       </c>
       <c r="K90" t="n">
-        <v>2.847370204046599</v>
+        <v>9.819395546555249</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M90" t="n">
-        <v>1.77128061725175</v>
+        <v>9.08390730331792</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -6131,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>0.7575886555233091</v>
+        <v>26.31318000746678</v>
       </c>
       <c r="S90" t="n">
-        <v>0.0749480807635412</v>
+        <v>40.14135472287926</v>
       </c>
     </row>
     <row r="91">
@@ -6152,10 +6152,10 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>7.553626149131768</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -6164,19 +6164,19 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>6.601764333500597</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
@@ -6194,10 +6194,10 @@
         <v>0</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>16.6017643335006</v>
       </c>
       <c r="S91" t="n">
-        <v>5</v>
+        <v>42.55362614913177</v>
       </c>
     </row>
     <row r="92">
@@ -6239,10 +6239,10 @@
         <v>10</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -6257,10 +6257,10 @@
         <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S92" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93">
@@ -6302,10 +6302,10 @@
         <v>8.225961538461538</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -6320,10 +6320,262 @@
         <v>0</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S93" t="n">
-        <v>16.62410490483808</v>
+        <v>26.62410490483808</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-11-24</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3.050790039716893</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8.34677780922884</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8.124315058157913</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>10</v>
+      </c>
+      <c r="K94" t="n">
+        <v>7.963662243002353</v>
+      </c>
+      <c r="L94" t="n">
+        <v>10</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5.710758674254921</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>23.05079003971689</v>
+      </c>
+      <c r="S94" t="n">
+        <v>30.14551378464403</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-11-24</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>9.523656140223277</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5.392492685363591</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>10</v>
+      </c>
+      <c r="K95" t="n">
+        <v>6.915708812260537</v>
+      </c>
+      <c r="L95" t="n">
+        <v>7.336611564483505</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>17.3366115644835</v>
+      </c>
+      <c r="S95" t="n">
+        <v>26.83185763784741</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024-11-24</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>10</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>10</v>
+      </c>
+      <c r="L96" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="M96" t="n">
+        <v>10</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024-11-24</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>10</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>10</v>
+      </c>
+      <c r="L97" t="n">
+        <v>7</v>
+      </c>
+      <c r="M97" t="n">
+        <v>10</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>17</v>
+      </c>
+      <c r="S97" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S97"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2222,7 +2222,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.233333333333333</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="R28" t="n">
         <v>50.7</v>
@@ -2474,7 +2474,7 @@
         <v>8.133333333333333</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.733333333333334</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="R32" t="n">
         <v>38.33333333333334</v>
@@ -4109,7 +4109,7 @@
         <v>6.447576870117802</v>
       </c>
       <c r="P58" t="n">
-        <v>5.750736182099799</v>
+        <v>9.832475435120354</v>
       </c>
       <c r="Q58" t="n">
         <v>9.586764750510225</v>
@@ -4361,10 +4361,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>9.482209878015992</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.3056588011346539</v>
+        <v>10</v>
       </c>
       <c r="R62" t="n">
         <v>46.81731489704723</v>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R63" t="n">
         <v>30</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q64" t="n">
         <v>8.066666666666666</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -4613,10 +4613,10 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>8.43249455441206</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>8.8964330717248</v>
       </c>
       <c r="R66" t="n">
         <v>46.19579065663704</v>
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R68" t="n">
         <v>16.73333333333333</v>
@@ -4802,10 +4802,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R69" t="n">
         <v>24</v>
@@ -4865,10 +4865,10 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R70" t="n">
         <v>40.80332777001756</v>
@@ -4928,10 +4928,10 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R71" t="n">
         <v>20.13032893953737</v>
@@ -4991,10 +4991,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>8.766666666666667</v>
       </c>
       <c r="R72" t="n">
         <v>27.4</v>
@@ -5054,10 +5054,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>8.283532280836864</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>7.394858526346417</v>
       </c>
       <c r="R73" t="n">
         <v>16.708054277561</v>
@@ -5117,10 +5117,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>9.727389414636191</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R74" t="n">
         <v>45.63065071615156</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R75" t="n">
         <v>35.28190614818352</v>
@@ -5243,10 +5243,10 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>8.633333333333333</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="R76" t="n">
         <v>36.4</v>
@@ -5369,10 +5369,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R78" t="n">
         <v>27.45292678451746</v>
@@ -5432,10 +5432,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R79" t="n">
         <v>20.49170319415381</v>
@@ -5495,10 +5495,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>6.666666666666668</v>
       </c>
       <c r="R80" t="n">
         <v>35.56666666666667</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>9.909339836563557</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
@@ -5621,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>9.726135665090283</v>
       </c>
       <c r="R82" t="n">
         <v>28.5226098003511</v>
@@ -5747,10 +5747,10 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>7.266666666666666</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R84" t="n">
         <v>18.1</v>
@@ -5873,10 +5873,10 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>6.414310925134536</v>
       </c>
       <c r="Q86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R86" t="n">
         <v>25.321218771265</v>
@@ -5999,10 +5999,10 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R88" t="n">
         <v>18.7</v>
@@ -6062,10 +6062,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>9.847137795234683</v>
       </c>
       <c r="R89" t="n">
         <v>10</v>
@@ -6125,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>9.69872311680329</v>
       </c>
       <c r="R90" t="n">
         <v>26.31318000746678</v>
@@ -6188,10 +6188,10 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>5.017977204904182</v>
       </c>
       <c r="R91" t="n">
         <v>16.6017643335006</v>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H92" t="n">
         <v>9.333333333333334</v>
@@ -6251,16 +6251,16 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q92" t="n">
-        <v>0</v>
+        <v>8.766666666666667</v>
       </c>
       <c r="R92" t="n">
         <v>10</v>
       </c>
       <c r="S92" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6314,16 +6314,16 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>7.394858526346417</v>
       </c>
       <c r="R93" t="n">
         <v>10</v>
       </c>
       <c r="S93" t="n">
-        <v>26.62410490483808</v>
+        <v>36.62410490483808</v>
       </c>
     </row>
     <row r="94">
@@ -6341,10 +6341,10 @@
         <v>3.050790039716893</v>
       </c>
       <c r="D94" t="n">
-        <v>8.34677780922884</v>
+        <v>9.766187905537263</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>8.124315058157913</v>
+        <v>8.976683255620076</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -6362,13 +6362,13 @@
         <v>10</v>
       </c>
       <c r="K94" t="n">
-        <v>7.963662243002353</v>
+        <v>8.234944660707749</v>
       </c>
       <c r="L94" t="n">
         <v>10</v>
       </c>
       <c r="M94" t="n">
-        <v>5.710758674254921</v>
+        <v>6.535112045842943</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -6377,16 +6377,16 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q94" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R94" t="n">
         <v>23.05079003971689</v>
       </c>
       <c r="S94" t="n">
-        <v>30.14551378464403</v>
+        <v>43.51292786770803</v>
       </c>
     </row>
     <row r="95">
@@ -6404,10 +6404,10 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>7.745927517424228</v>
       </c>
       <c r="E95" t="n">
-        <v>9.523656140223277</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>5.392492685363591</v>
+        <v>9.67423107114822</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -6440,16 +6440,16 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q95" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R95" t="n">
         <v>17.3366115644835</v>
       </c>
       <c r="S95" t="n">
-        <v>26.83185763784741</v>
+        <v>39.33586740083298</v>
       </c>
     </row>
     <row r="96">
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -6503,16 +6503,16 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q96" t="n">
-        <v>0</v>
+        <v>9.466666666666667</v>
       </c>
       <c r="R96" t="n">
         <v>19.2</v>
       </c>
       <c r="S96" t="n">
-        <v>28.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
@@ -6542,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>9.273684210526314</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -6566,16 +6566,268 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>9.182004877422667</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>8.26770368984902</v>
       </c>
       <c r="R97" t="n">
         <v>17</v>
       </c>
       <c r="S97" t="n">
-        <v>20</v>
+        <v>29.27368421052631</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>9.215624136256851</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.132210258349824</v>
+      </c>
+      <c r="E98" t="n">
+        <v>10</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>9.677569691434259</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>10</v>
+      </c>
+      <c r="K98" t="n">
+        <v>8.517204156239197</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>7.272119953962245</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>9.300545308710626</v>
+      </c>
+      <c r="R98" t="n">
+        <v>19.21562413625685</v>
+      </c>
+      <c r="S98" t="n">
+        <v>37.59910405998553</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>6.515151515151516</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>10</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>8.731603543279626</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>10</v>
+      </c>
+      <c r="K99" t="n">
+        <v>7.640571606088848</v>
+      </c>
+      <c r="L99" t="n">
+        <v>7.12064573731065</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>23.63579725246217</v>
+      </c>
+      <c r="S99" t="n">
+        <v>31.37217514936847</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>8.933333333333334</v>
+      </c>
+      <c r="E100" t="n">
+        <v>10</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>10</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>10</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>46.33333333333334</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>8.700444634782279</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>8.08173076923077</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>7.811030008110301</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>9.567064561673728</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>9.223676964161395</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" t="n">
+        <v>24.59320541212335</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:S109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4106,7 +4106,7 @@
         <v>7.627653524032286</v>
       </c>
       <c r="O58" t="n">
-        <v>6.447576870117802</v>
+        <v>8.305237417536544</v>
       </c>
       <c r="P58" t="n">
         <v>9.832475435120354</v>
@@ -4115,7 +4115,7 @@
         <v>9.586764750510225</v>
       </c>
       <c r="R58" t="n">
-        <v>59.81949296401085</v>
+        <v>61.67715351142959</v>
       </c>
       <c r="S58" t="n">
         <v>52.23917669515733</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P62" t="n">
         <v>9.482209878015992</v>
@@ -4367,7 +4367,7 @@
         <v>10</v>
       </c>
       <c r="R62" t="n">
-        <v>46.81731489704723</v>
+        <v>56.81731489704723</v>
       </c>
       <c r="S62" t="n">
         <v>59.20816473201989</v>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -4430,7 +4430,7 @@
         <v>10</v>
       </c>
       <c r="R63" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S63" t="n">
         <v>54.17334016970293</v>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="P64" t="n">
         <v>10</v>
@@ -4493,7 +4493,7 @@
         <v>8.066666666666666</v>
       </c>
       <c r="R64" t="n">
-        <v>30</v>
+        <v>39.9</v>
       </c>
       <c r="S64" t="n">
         <v>45.66666666666666</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>4.478232180898258</v>
       </c>
       <c r="P66" t="n">
         <v>8.43249455441206</v>
@@ -4619,7 +4619,7 @@
         <v>8.8964330717248</v>
       </c>
       <c r="R66" t="n">
-        <v>46.19579065663704</v>
+        <v>50.6740228375353</v>
       </c>
       <c r="S66" t="n">
         <v>43.76281256036515</v>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P68" t="n">
         <v>10</v>
@@ -4745,7 +4745,7 @@
         <v>10</v>
       </c>
       <c r="R68" t="n">
-        <v>16.73333333333333</v>
+        <v>26.73333333333333</v>
       </c>
       <c r="S68" t="n">
         <v>43.46666666666667</v>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>8.332294201907883</v>
       </c>
       <c r="P69" t="n">
         <v>10</v>
@@ -4808,7 +4808,7 @@
         <v>10</v>
       </c>
       <c r="R69" t="n">
-        <v>24</v>
+        <v>32.33229420190789</v>
       </c>
       <c r="S69" t="n">
         <v>19.22947185449232</v>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P70" t="n">
         <v>10</v>
@@ -4871,7 +4871,7 @@
         <v>10</v>
       </c>
       <c r="R70" t="n">
-        <v>40.80332777001756</v>
+        <v>50.80332777001756</v>
       </c>
       <c r="S70" t="n">
         <v>50.80305069055183</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P71" t="n">
         <v>10</v>
@@ -4934,7 +4934,7 @@
         <v>10</v>
       </c>
       <c r="R71" t="n">
-        <v>20.13032893953737</v>
+        <v>30.13032893953737</v>
       </c>
       <c r="S71" t="n">
         <v>28.99185038602882</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="P72" t="n">
         <v>9.699999999999999</v>
@@ -4997,7 +4997,7 @@
         <v>8.766666666666667</v>
       </c>
       <c r="R72" t="n">
-        <v>27.4</v>
+        <v>36.5</v>
       </c>
       <c r="S72" t="n">
         <v>44.13333333333333</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>8.319074046703179</v>
       </c>
       <c r="P74" t="n">
         <v>9.727389414636191</v>
@@ -5123,7 +5123,7 @@
         <v>10</v>
       </c>
       <c r="R74" t="n">
-        <v>45.63065071615156</v>
+        <v>53.94972476285474</v>
       </c>
       <c r="S74" t="n">
         <v>52.9898509471666</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>5.449609185861521</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>10</v>
       </c>
       <c r="R75" t="n">
-        <v>35.28190614818352</v>
+        <v>40.73151533404504</v>
       </c>
       <c r="S75" t="n">
         <v>36.90406042702573</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>9.533333333333333</v>
       </c>
       <c r="P76" t="n">
         <v>8.633333333333333</v>
@@ -5249,7 +5249,7 @@
         <v>8.4</v>
       </c>
       <c r="R76" t="n">
-        <v>36.4</v>
+        <v>45.93333333333333</v>
       </c>
       <c r="S76" t="n">
         <v>49.36666666666667</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>9.08390730331792</v>
       </c>
       <c r="P78" t="n">
         <v>10</v>
@@ -5375,7 +5375,7 @@
         <v>10</v>
       </c>
       <c r="R78" t="n">
-        <v>27.45292678451746</v>
+        <v>36.53683408783538</v>
       </c>
       <c r="S78" t="n">
         <v>44.89055506549231</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>5.034585321989348</v>
       </c>
       <c r="P79" t="n">
         <v>10</v>
@@ -5438,7 +5438,7 @@
         <v>10</v>
       </c>
       <c r="R79" t="n">
-        <v>20.49170319415381</v>
+        <v>25.52628851614315</v>
       </c>
       <c r="S79" t="n">
         <v>34.46476158211917</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P80" t="n">
         <v>10</v>
@@ -5501,7 +5501,7 @@
         <v>6.666666666666668</v>
       </c>
       <c r="R80" t="n">
-        <v>35.56666666666667</v>
+        <v>45.56666666666667</v>
       </c>
       <c r="S80" t="n">
         <v>40</v>
@@ -5555,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>7.39185123585526</v>
       </c>
       <c r="P81" t="n">
         <v>9.909339836563557</v>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>22.52874031797799</v>
+        <v>29.92059155383325</v>
       </c>
       <c r="S81" t="n">
         <v>15.46567071749553</v>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>7.915965337952482</v>
       </c>
       <c r="P82" t="n">
         <v>10</v>
@@ -5627,7 +5627,7 @@
         <v>9.726135665090283</v>
       </c>
       <c r="R82" t="n">
-        <v>28.5226098003511</v>
+        <v>36.43857513830358</v>
       </c>
       <c r="S82" t="n">
         <v>46.66573737945674</v>
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>5.034585321989348</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>11.46858493930172</v>
+        <v>16.50317026129107</v>
       </c>
       <c r="S83" t="n">
         <v>30</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P84" t="n">
         <v>7.266666666666666</v>
@@ -5753,7 +5753,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="R84" t="n">
-        <v>18.1</v>
+        <v>28.1</v>
       </c>
       <c r="S84" t="n">
         <v>46.06666666666666</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>8.489034696249984</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>8.23355263157895</v>
+        <v>16.72258732782893</v>
       </c>
       <c r="S85" t="n">
         <v>24.99456352561945</v>
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P86" t="n">
         <v>6.414310925134536</v>
@@ -5879,7 +5879,7 @@
         <v>10</v>
       </c>
       <c r="R86" t="n">
-        <v>25.321218771265</v>
+        <v>35.321218771265</v>
       </c>
       <c r="S86" t="n">
         <v>54.67688233437627</v>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>7.801411081137166</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>9.581901489117985</v>
+        <v>17.38331257025515</v>
       </c>
       <c r="S87" t="n">
         <v>39.51790059101407</v>
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P88" t="n">
         <v>10</v>
@@ -6005,7 +6005,7 @@
         <v>10</v>
       </c>
       <c r="R88" t="n">
-        <v>18.7</v>
+        <v>28.7</v>
       </c>
       <c r="S88" t="n">
         <v>40.8</v>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>7.496344898749995</v>
       </c>
       <c r="P89" t="n">
         <v>10</v>
@@ -6068,7 +6068,7 @@
         <v>9.847137795234683</v>
       </c>
       <c r="R89" t="n">
-        <v>10</v>
+        <v>17.49634489875</v>
       </c>
       <c r="S89" t="n">
         <v>8.058054439420085</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>9.372985566366298</v>
       </c>
       <c r="P90" t="n">
         <v>10</v>
@@ -6131,7 +6131,7 @@
         <v>9.69872311680329</v>
       </c>
       <c r="R90" t="n">
-        <v>26.31318000746678</v>
+        <v>35.68616557383307</v>
       </c>
       <c r="S90" t="n">
         <v>40.14135472287926</v>
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="P91" t="n">
         <v>10</v>
@@ -6194,7 +6194,7 @@
         <v>5.017977204904182</v>
       </c>
       <c r="R91" t="n">
-        <v>16.6017643335006</v>
+        <v>22.31605004778631</v>
       </c>
       <c r="S91" t="n">
         <v>42.55362614913177</v>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>9.466666666666667</v>
       </c>
       <c r="P92" t="n">
         <v>10</v>
@@ -6257,7 +6257,7 @@
         <v>8.766666666666667</v>
       </c>
       <c r="R92" t="n">
-        <v>10</v>
+        <v>19.46666666666667</v>
       </c>
       <c r="S92" t="n">
         <v>58</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>6.624236186177305</v>
       </c>
       <c r="P94" t="n">
         <v>10</v>
@@ -6383,7 +6383,7 @@
         <v>10</v>
       </c>
       <c r="R94" t="n">
-        <v>23.05079003971689</v>
+        <v>29.6750262258942</v>
       </c>
       <c r="S94" t="n">
         <v>43.51292786770803</v>
@@ -6428,7 +6428,7 @@
         <v>6.915708812260537</v>
       </c>
       <c r="L95" t="n">
-        <v>7.336611564483505</v>
+        <v>9.173611291515639</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
@@ -6446,7 +6446,7 @@
         <v>10</v>
       </c>
       <c r="R95" t="n">
-        <v>17.3366115644835</v>
+        <v>19.17361129151564</v>
       </c>
       <c r="S95" t="n">
         <v>39.33586740083298</v>
@@ -6590,10 +6590,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>9.215624136256851</v>
+        <v>9.240369112483753</v>
       </c>
       <c r="D98" t="n">
-        <v>2.132210258349824</v>
+        <v>6.8467486279341</v>
       </c>
       <c r="E98" t="n">
         <v>10</v>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>9.677569691434259</v>
+        <v>9.737556806027074</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -6614,19 +6614,19 @@
         <v>10</v>
       </c>
       <c r="K98" t="n">
-        <v>8.517204156239197</v>
+        <v>10</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>8.152754693501771</v>
       </c>
       <c r="M98" t="n">
-        <v>7.272119953962245</v>
+        <v>7.763211640958832</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>9.987458662742062</v>
       </c>
       <c r="P98" t="n">
         <v>10</v>
@@ -6635,10 +6635,10 @@
         <v>9.300545308710626</v>
       </c>
       <c r="R98" t="n">
-        <v>19.21562413625685</v>
+        <v>37.38058246872759</v>
       </c>
       <c r="S98" t="n">
-        <v>37.59910405998553</v>
+        <v>44.34751707492001</v>
       </c>
     </row>
     <row r="99">
@@ -6677,10 +6677,10 @@
         <v>10</v>
       </c>
       <c r="K99" t="n">
-        <v>7.640571606088848</v>
+        <v>9.504504504504505</v>
       </c>
       <c r="L99" t="n">
-        <v>7.12064573731065</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
@@ -6689,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>8.35477623296673</v>
       </c>
       <c r="P99" t="n">
         <v>10</v>
@@ -6698,10 +6698,10 @@
         <v>0</v>
       </c>
       <c r="R99" t="n">
-        <v>23.63579725246217</v>
+        <v>24.86992774811824</v>
       </c>
       <c r="S99" t="n">
-        <v>31.37217514936847</v>
+        <v>33.23610804778413</v>
       </c>
     </row>
     <row r="100">
@@ -6743,7 +6743,7 @@
         <v>10</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M100" t="n">
         <v>8.4</v>
@@ -6761,7 +6761,7 @@
         <v>10</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S100" t="n">
         <v>46.33333333333334</v>
@@ -6806,7 +6806,7 @@
         <v>8.08173076923077</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>9.375730994152047</v>
       </c>
       <c r="M101" t="n">
         <v>7.811030008110301</v>
@@ -6824,10 +6824,514 @@
         <v>9.223676964161395</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>9.375730994152047</v>
       </c>
       <c r="S101" t="n">
         <v>24.59320541212335</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>9.665706509013532</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8.307887093516937</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.6931172275014791</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>7.228827871392642</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>8.918844904883636</v>
+      </c>
+      <c r="K102" t="n">
+        <v>9.509454118266968</v>
+      </c>
+      <c r="L102" t="n">
+        <v>9.046430447682672</v>
+      </c>
+      <c r="M102" t="n">
+        <v>8.059547230117545</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>9.608655582566671</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>37.23963744414651</v>
+      </c>
+      <c r="S102" t="n">
+        <v>33.79883354079557</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>7.020202020202021</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5.085120871637725</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>5.662621189928158</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>10</v>
+      </c>
+      <c r="K103" t="n">
+        <v>5.217384476697811</v>
+      </c>
+      <c r="L103" t="n">
+        <v>8.313105949640789</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>6.279656913605866</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>31.61296488344868</v>
+      </c>
+      <c r="S103" t="n">
+        <v>20.9651265382637</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>10</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6</v>
+      </c>
+      <c r="E104" t="n">
+        <v>6.466666666666665</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>9.433333333333334</v>
+      </c>
+      <c r="L104" t="n">
+        <v>5.933333333333334</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3.800000000000001</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>9.533333333333333</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>25.46666666666667</v>
+      </c>
+      <c r="S104" t="n">
+        <v>35.7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>8.747131791974841</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>8.920000000000002</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>8.747131791974841</v>
+      </c>
+      <c r="S105" t="n">
+        <v>8.920000000000002</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>8.772722696117773</v>
+      </c>
+      <c r="D106" t="n">
+        <v>8.085490625659173</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>8.916921492553294</v>
+      </c>
+      <c r="H106" t="n">
+        <v>9.260213191512038</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>7.656413366768122</v>
+      </c>
+      <c r="K106" t="n">
+        <v>8.415027970174181</v>
+      </c>
+      <c r="L106" t="n">
+        <v>9.149148767802274</v>
+      </c>
+      <c r="M106" t="n">
+        <v>10</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>9.951666838212956</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>35.52995166890113</v>
+      </c>
+      <c r="S106" t="n">
+        <v>44.67765327989868</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5.590971480860149</v>
+      </c>
+      <c r="H107" t="n">
+        <v>5.786291810014261</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>10</v>
+      </c>
+      <c r="L107" t="n">
+        <v>5.45337239310874</v>
+      </c>
+      <c r="M107" t="n">
+        <v>10</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>7.455557861243689</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>12.90893025435243</v>
+      </c>
+      <c r="S107" t="n">
+        <v>31.37726329087441</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>10</v>
+      </c>
+      <c r="D108" t="n">
+        <v>9.833333333333334</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>10</v>
+      </c>
+      <c r="H108" t="n">
+        <v>9.433333333333334</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>8.033333333333333</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>10</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>20</v>
+      </c>
+      <c r="S108" t="n">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>10</v>
+      </c>
+      <c r="D109" t="n">
+        <v>9.720711415651646</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>9.088189588189589</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>7.38620476576681</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>8.280047370460514</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>18.28004737046052</v>
+      </c>
+      <c r="S109" t="n">
+        <v>26.19510576960804</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S109"/>
+  <dimension ref="A1:S117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7097,7 +7097,7 @@
         <v>8.772722696117773</v>
       </c>
       <c r="D106" t="n">
-        <v>8.085490625659173</v>
+        <v>8.218690085247859</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -7118,10 +7118,10 @@
         <v>7.656413366768122</v>
       </c>
       <c r="K106" t="n">
-        <v>8.415027970174181</v>
+        <v>8.831569815800643</v>
       </c>
       <c r="L106" t="n">
-        <v>9.149148767802274</v>
+        <v>9.65110660985189</v>
       </c>
       <c r="M106" t="n">
         <v>10</v>
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>9.951666838212956</v>
+        <v>9.972767300424392</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
@@ -7139,10 +7139,10 @@
         <v>0</v>
       </c>
       <c r="R106" t="n">
-        <v>35.52995166890113</v>
+        <v>36.05300997316218</v>
       </c>
       <c r="S106" t="n">
-        <v>44.67765327989868</v>
+        <v>45.22739458511384</v>
       </c>
     </row>
     <row r="107">
@@ -7184,7 +7184,7 @@
         <v>10</v>
       </c>
       <c r="L107" t="n">
-        <v>5.45337239310874</v>
+        <v>5.80212038780777</v>
       </c>
       <c r="M107" t="n">
         <v>10</v>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="R107" t="n">
-        <v>12.90893025435243</v>
+        <v>13.25767824905146</v>
       </c>
       <c r="S107" t="n">
         <v>31.37726329087441</v>
@@ -7332,6 +7332,510 @@
       </c>
       <c r="S109" t="n">
         <v>26.19510576960804</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>9.517026902837271</v>
+      </c>
+      <c r="D110" t="n">
+        <v>6.251248689891535</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>9.152138541407384</v>
+      </c>
+      <c r="H110" t="n">
+        <v>8.243544947014787</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>8.715353089784399</v>
+      </c>
+      <c r="K110" t="n">
+        <v>8.976793877880098</v>
+      </c>
+      <c r="L110" t="n">
+        <v>8.565899571905055</v>
+      </c>
+      <c r="M110" t="n">
+        <v>8.147913384448724</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>3.268868649179355</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>30.06714821370608</v>
+      </c>
+      <c r="S110" t="n">
+        <v>40.77163944064253</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>7.581908831908832</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>7.044444444444444</v>
+      </c>
+      <c r="K111" t="n">
+        <v>5.508750508750508</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>7.044444444444444</v>
+      </c>
+      <c r="S111" t="n">
+        <v>18.09065934065934</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>10</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>10</v>
+      </c>
+      <c r="H112" t="n">
+        <v>9.033333333333333</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>10</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5.266666666666666</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>4.600000000000001</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="S112" t="n">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>10</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9.229471854492321</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>9.428127428127425</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>10</v>
+      </c>
+      <c r="S113" t="n">
+        <v>18.65759928261975</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>-11.16267630903812</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-4.112996652504186</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-0.1669388850804464</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-6.458722396355212</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.9980251918540667</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-11.35347578182325</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>3.141079570999812</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>-13.48229394253946</v>
+      </c>
+      <c r="S114" t="n">
+        <v>-15.63341131940788</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>10</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3.133333333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3.800000000000001</v>
+      </c>
+      <c r="M116" t="n">
+        <v>10</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>10</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="S116" t="n">
+        <v>23.13333333333333</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>8.485062023178616</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>8.465263157894737</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>10</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>7.757579055986836</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" t="n">
+        <v>16.24264107916545</v>
+      </c>
+      <c r="S117" t="n">
+        <v>18.46526315789474</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -7349,7 +7349,7 @@
         <v>9.517026902837271</v>
       </c>
       <c r="D110" t="n">
-        <v>6.251248689891535</v>
+        <v>10</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>8.715353089784399</v>
       </c>
       <c r="K110" t="n">
-        <v>8.976793877880098</v>
+        <v>9.991086558103163</v>
       </c>
       <c r="L110" t="n">
         <v>8.565899571905055</v>
@@ -7394,7 +7394,7 @@
         <v>30.06714821370608</v>
       </c>
       <c r="S110" t="n">
-        <v>40.77163944064253</v>
+        <v>45.53468343097406</v>
       </c>
     </row>
     <row r="111">
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>9.074340829688456</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -7433,7 +7433,7 @@
         <v>7.044444444444444</v>
       </c>
       <c r="K111" t="n">
-        <v>5.508750508750508</v>
+        <v>7.640571606088848</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -7457,7 +7457,7 @@
         <v>7.044444444444444</v>
       </c>
       <c r="S111" t="n">
-        <v>18.09065934065934</v>
+        <v>29.29682126768613</v>
       </c>
     </row>
     <row r="112">
@@ -7598,10 +7598,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-11.16267630903812</v>
+        <v>10</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>9.880056006528793</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -7610,31 +7610,31 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>-4.112996652504186</v>
+        <v>10</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.1669388850804464</v>
+        <v>7.921945098894121</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>-6.458722396355212</v>
+        <v>6.490304903193256</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L114" t="n">
         <v>0.9980251918540667</v>
       </c>
       <c r="M114" t="n">
-        <v>-11.35347578182325</v>
+        <v>9.515892079774515</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
       </c>
       <c r="O114" t="n">
-        <v>3.141079570999812</v>
+        <v>10</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
@@ -7643,10 +7643,10 @@
         <v>0</v>
       </c>
       <c r="R114" t="n">
-        <v>-13.48229394253946</v>
+        <v>27.48833009504732</v>
       </c>
       <c r="S114" t="n">
-        <v>-15.63341131940788</v>
+        <v>47.31789318519743</v>
       </c>
     </row>
     <row r="115">
@@ -7661,10 +7661,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>8.552183417213158</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7685,19 +7685,19 @@
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>7.897378174494714</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>5</v>
+        <v>5.863557858376511</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>0</v>
+        <v>6.906506792454215</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
@@ -7706,10 +7706,10 @@
         <v>0</v>
       </c>
       <c r="R115" t="n">
-        <v>0</v>
+        <v>16.90650679245422</v>
       </c>
       <c r="S115" t="n">
-        <v>5</v>
+        <v>32.31311945008438</v>
       </c>
     </row>
     <row r="116">
@@ -7727,7 +7727,7 @@
         <v>10</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>6.266666666666666</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>3.133333333333333</v>
+        <v>10</v>
       </c>
       <c r="H116" t="n">
         <v>10</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L116" t="n">
         <v>3.800000000000001</v>
@@ -7772,7 +7772,7 @@
         <v>23.8</v>
       </c>
       <c r="S116" t="n">
-        <v>23.13333333333333</v>
+        <v>46.26666666666667</v>
       </c>
     </row>
     <row r="117">
@@ -7799,10 +7799,10 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H117" t="n">
-        <v>8.465263157894737</v>
+        <v>10</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>7.216346153846157</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -7835,7 +7835,7 @@
         <v>16.24264107916545</v>
       </c>
       <c r="S117" t="n">
-        <v>18.46526315789474</v>
+        <v>37.21634615384616</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S117"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7100,7 +7100,7 @@
         <v>8.218690085247859</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>7.980945831662394</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -7142,7 +7142,7 @@
         <v>36.05300997316218</v>
       </c>
       <c r="S106" t="n">
-        <v>45.22739458511384</v>
+        <v>53.20834041677622</v>
       </c>
     </row>
     <row r="107">
@@ -7163,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>5.124007936507937</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -7205,7 +7205,7 @@
         <v>13.25767824905146</v>
       </c>
       <c r="S107" t="n">
-        <v>31.37726329087441</v>
+        <v>36.50127122738235</v>
       </c>
     </row>
     <row r="108">
@@ -7226,7 +7226,7 @@
         <v>9.833333333333334</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>20</v>
       </c>
       <c r="S108" t="n">
-        <v>37.3</v>
+        <v>47.13333333333333</v>
       </c>
     </row>
     <row r="109">
@@ -7352,7 +7352,7 @@
         <v>10</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>9.328147021399529</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -7394,7 +7394,7 @@
         <v>30.06714821370608</v>
       </c>
       <c r="S110" t="n">
-        <v>45.53468343097406</v>
+        <v>54.86283045237359</v>
       </c>
     </row>
     <row r="111">
@@ -7415,7 +7415,7 @@
         <v>9.074340829688456</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>6.245236604695987</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -7457,7 +7457,7 @@
         <v>7.044444444444444</v>
       </c>
       <c r="S111" t="n">
-        <v>29.29682126768613</v>
+        <v>35.54205787238212</v>
       </c>
     </row>
     <row r="112">
@@ -7478,7 +7478,7 @@
         <v>9.4</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -7520,7 +7520,7 @@
         <v>14.6</v>
       </c>
       <c r="S112" t="n">
-        <v>43.7</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="113">
@@ -7541,7 +7541,7 @@
         <v>9.229471854492321</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>7.089938841587715</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -7583,7 +7583,7 @@
         <v>10</v>
       </c>
       <c r="S113" t="n">
-        <v>18.65759928261975</v>
+        <v>25.74753812420746</v>
       </c>
     </row>
     <row r="114">
@@ -7604,7 +7604,7 @@
         <v>9.880056006528793</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>7.402296470459273</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -7613,7 +7613,7 @@
         <v>10</v>
       </c>
       <c r="H114" t="n">
-        <v>7.921945098894121</v>
+        <v>8.092028145445807</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -7628,7 +7628,7 @@
         <v>0.9980251918540667</v>
       </c>
       <c r="M114" t="n">
-        <v>9.515892079774515</v>
+        <v>9.901191204442394</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>27.48833009504732</v>
       </c>
       <c r="S114" t="n">
-        <v>47.31789318519743</v>
+        <v>55.27557182687627</v>
       </c>
     </row>
     <row r="115">
@@ -7685,19 +7685,19 @@
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>7.897378174494714</v>
+        <v>8.435972549596755</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>5.863557858376511</v>
+        <v>7.837404391808537</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>6.906506792454215</v>
+        <v>7.008266966619745</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
@@ -7706,10 +7706,10 @@
         <v>0</v>
       </c>
       <c r="R115" t="n">
-        <v>16.90650679245422</v>
+        <v>17.00826696661974</v>
       </c>
       <c r="S115" t="n">
-        <v>32.31311945008438</v>
+        <v>34.82556035861845</v>
       </c>
     </row>
     <row r="116">
@@ -7730,7 +7730,7 @@
         <v>6.266666666666666</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>7.133333333333333</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>23.8</v>
       </c>
       <c r="S116" t="n">
-        <v>46.26666666666667</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="117">
@@ -7836,6 +7836,258 @@
       </c>
       <c r="S117" t="n">
         <v>37.21634615384616</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>9.124991908184814</v>
+      </c>
+      <c r="D118" t="n">
+        <v>10</v>
+      </c>
+      <c r="E118" t="n">
+        <v>10</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>10</v>
+      </c>
+      <c r="H118" t="n">
+        <v>9.830920632635912</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>10</v>
+      </c>
+      <c r="K118" t="n">
+        <v>5.562740642286723</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-1.524697004895697</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>9.828778776927553</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>28.95377068511237</v>
+      </c>
+      <c r="S118" t="n">
+        <v>43.86896427002694</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>10</v>
+      </c>
+      <c r="E119" t="n">
+        <v>10</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>10</v>
+      </c>
+      <c r="H119" t="n">
+        <v>7.157405642423475</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>10</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>5</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>6.260030391873193</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>16.26003039187319</v>
+      </c>
+      <c r="S119" t="n">
+        <v>42.15740564242348</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>9.633333333333333</v>
+      </c>
+      <c r="D120" t="n">
+        <v>10</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.066666666666666</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>10</v>
+      </c>
+      <c r="H120" t="n">
+        <v>9.533333333333333</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>10</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>7.533333333333335</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>16.43333333333333</v>
+      </c>
+      <c r="S120" t="n">
+        <v>53.13333333333334</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>8.004600780385532</v>
+      </c>
+      <c r="D121" t="n">
+        <v>10</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>10</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>7.86538461538462</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>7.077240953153364</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>8.004600780385532</v>
+      </c>
+      <c r="S121" t="n">
+        <v>34.94262556853798</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_Scores_all.xlsx
+++ b/data/Daily_Scores_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S121"/>
+  <dimension ref="A1:S125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7625,7 +7625,7 @@
         <v>10</v>
       </c>
       <c r="L114" t="n">
-        <v>0.9980251918540667</v>
+        <v>8.676733311291667</v>
       </c>
       <c r="M114" t="n">
         <v>9.901191204442394</v>
@@ -7643,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="R114" t="n">
-        <v>27.48833009504732</v>
+        <v>35.16703821448492</v>
       </c>
       <c r="S114" t="n">
         <v>55.27557182687627</v>
@@ -7688,7 +7688,7 @@
         <v>8.435972549596755</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>5.606375606375607</v>
       </c>
       <c r="M115" t="n">
         <v>7.837404391808537</v>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="R115" t="n">
-        <v>17.00826696661974</v>
+        <v>22.61464257299535</v>
       </c>
       <c r="S115" t="n">
         <v>34.82556035861845</v>
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>9.124991908184814</v>
+        <v>9.13518453291916</v>
       </c>
       <c r="D118" t="n">
         <v>10</v>
@@ -7865,7 +7865,7 @@
         <v>10</v>
       </c>
       <c r="H118" t="n">
-        <v>9.830920632635912</v>
+        <v>9.841609344960935</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -7874,13 +7874,13 @@
         <v>10</v>
       </c>
       <c r="K118" t="n">
-        <v>5.562740642286723</v>
+        <v>9.449634920163826</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>9.63139624128236</v>
       </c>
       <c r="M118" t="n">
-        <v>-1.524697004895697</v>
+        <v>10</v>
       </c>
       <c r="N118" t="n">
         <v>0</v>
@@ -7895,10 +7895,10 @@
         <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>28.95377068511237</v>
+        <v>38.59535955112908</v>
       </c>
       <c r="S118" t="n">
-        <v>43.86896427002694</v>
+        <v>59.29124426512476</v>
       </c>
     </row>
     <row r="119">
@@ -7928,7 +7928,7 @@
         <v>10</v>
       </c>
       <c r="H119" t="n">
-        <v>7.157405642423475</v>
+        <v>7.185387557370603</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -7937,13 +7937,13 @@
         <v>10</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>7.951227089158124</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>5.45337239310874</v>
       </c>
       <c r="M119" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N119" t="n">
         <v>0</v>
@@ -7958,10 +7958,10 @@
         <v>0</v>
       </c>
       <c r="R119" t="n">
-        <v>16.26003039187319</v>
+        <v>21.71340278498193</v>
       </c>
       <c r="S119" t="n">
-        <v>42.15740564242348</v>
+        <v>55.13661464652873</v>
       </c>
     </row>
     <row r="120">
@@ -8003,7 +8003,7 @@
         <v>10</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="M120" t="n">
         <v>7.533333333333335</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="R120" t="n">
-        <v>16.43333333333333</v>
+        <v>24.83333333333333</v>
       </c>
       <c r="S120" t="n">
         <v>53.13333333333334</v>
@@ -8088,6 +8088,258 @@
       </c>
       <c r="S121" t="n">
         <v>34.94262556853798</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>8.340327407208228</v>
+      </c>
+      <c r="D122" t="n">
+        <v>10</v>
+      </c>
+      <c r="E122" t="n">
+        <v>10</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>10</v>
+      </c>
+      <c r="H122" t="n">
+        <v>6.541810220384716</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>10</v>
+      </c>
+      <c r="K122" t="n">
+        <v>10</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1.735386916498895</v>
+      </c>
+      <c r="M122" t="n">
+        <v>8.864565952737857</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>9.000520402595962</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" t="n">
+        <v>29.07623472630308</v>
+      </c>
+      <c r="S122" t="n">
+        <v>55.40637617312257</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>10</v>
+      </c>
+      <c r="E123" t="n">
+        <v>10</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>8.520410756951858</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>10</v>
+      </c>
+      <c r="K123" t="n">
+        <v>10</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>6.110288675055514</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>6.07214498166978</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" t="n">
+        <v>16.07214498166978</v>
+      </c>
+      <c r="S123" t="n">
+        <v>44.63069943200738</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>10</v>
+      </c>
+      <c r="D124" t="n">
+        <v>10</v>
+      </c>
+      <c r="E124" t="n">
+        <v>10</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>10</v>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>10</v>
+      </c>
+      <c r="L124" t="n">
+        <v>10</v>
+      </c>
+      <c r="M124" t="n">
+        <v>10</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>8.933333333333334</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>28.93333333333333</v>
+      </c>
+      <c r="S124" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>10</v>
+      </c>
+      <c r="D125" t="n">
+        <v>10</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>10</v>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>9.95673076923077</v>
+      </c>
+      <c r="L125" t="n">
+        <v>10</v>
+      </c>
+      <c r="M125" t="n">
+        <v>10</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R125" t="n">
+        <v>20</v>
+      </c>
+      <c r="S125" t="n">
+        <v>49.95673076923077</v>
       </c>
     </row>
   </sheetData>
